--- a/results/sample.xlsx
+++ b/results/sample.xlsx
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -561,22 +561,21 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
     <col width="24" customWidth="1" min="10" max="10"/>
     <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="24" customWidth="1" min="12" max="12"/>
-    <col width="43" customWidth="1" min="13" max="13"/>
+    <col width="43" customWidth="1" min="12" max="12"/>
+    <col width="60" customWidth="1" min="13" max="13"/>
     <col width="60" customWidth="1" min="14" max="14"/>
     <col width="60" customWidth="1" min="15" max="15"/>
-    <col width="60" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="60" customWidth="1" min="17" max="17"/>
     <col width="60" customWidth="1" min="18" max="18"/>
-    <col width="60" customWidth="1" min="19" max="19"/>
-    <col width="17" customWidth="1" min="20" max="20"/>
-    <col width="38" customWidth="1" min="21" max="21"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
+    <col width="38" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -607,80 +606,75 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>VirusTotal Score</t>
+          <t>URLScan Status</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>URLScan Status</t>
+          <t>CT Logs</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>CT Logs</t>
+          <t>HTTP Status</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>HTTP Status</t>
+          <t>Created Date</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Created Date</t>
+          <t>Updated Date</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Updated Date</t>
+          <t>Expires Date</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Expires Date</t>
+          <t>Registrant</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Registrant</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Registrar</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>Registrar</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Name Servers</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Name Servers</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>IP Address</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Mail Server</t>
         </is>
@@ -719,7 +713,6 @@
       <c r="R2" s="3" t="inlineStr"/>
       <c r="S2" s="3" t="inlineStr"/>
       <c r="T2" s="3" t="inlineStr"/>
-      <c r="U2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -734,7 +727,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>effu.org</t>
+          <t>effh.org</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -743,70 +736,69 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>2019-01-17, 2019-01-17</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>2024-01-13, 2024-01-08</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>2026-01-17, 2026-01-17</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>Redacted for Privacy</t>
-        </is>
-      </c>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
+          <t>HOSTINGER operations, UAB</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>NAMECHEAP INC</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>abuse@namecheap.com, 7f079307da8f44a78cb2147aeb3bb0a3.protect@withheldforprivacy.com</t>
-        </is>
-      </c>
+          <t>abuse@hostinger.com</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.dns-parking.com, ns2.dns-parking.com</t>
         </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>ns1.messagingengine.com, ns2.messagingengine.com</t>
+          <t>145.223.77.62</t>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
-          <t>103.168.172.37</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>in1-smtp.messagingengine.com</t>
+          <t>mx1.hostinger.com</t>
         </is>
       </c>
     </row>
@@ -823,7 +815,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>effv.org</t>
+          <t>effg.org</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -832,58 +824,69 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>2015-02-04</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>2026-07-11</t>
-        </is>
-      </c>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
-      <c r="N4" s="4" t="n"/>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>DreamHost, LLC</t>
+        </is>
+      </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>Cloudflare, Inc.</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>registrar-abuse@cloudflare.com</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n"/>
+          <t>domain-abuse@dreamhost.com</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.dreamhost.com, ns2.dreamhost.com, ns3.dreamhost.com</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>desi.ns.cloudflare.com, merlin.ns.cloudflare.com</t>
+          <t>173.236.142.191</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>104.21.81.33</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>mx01.mail.icloud.com</t>
+          <t>mx1.dreamhost.com</t>
         </is>
       </c>
     </row>
@@ -900,7 +903,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>effa.org</t>
+          <t>effi.org</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -909,64 +912,71 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>2001-09-06</t>
+        </is>
+      </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>1997-12-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>2025-02-13, 2025-01-19</t>
-        </is>
-      </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>Matthew Klein</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="n"/>
+          <t>2028-09-06</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>Gandi SAS</t>
+        </is>
+      </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>NETWORK SOLUTIONS, LLC.</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, mklein72@hotmail.com</t>
-        </is>
-      </c>
+          <t>abuse@support.gandi.net</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientTransferProhibited http://icann.org/epp#clientTransferProhibited</t>
+          <t>ns-2-a.gandi.net, ns-33-b.gandi.net, ns-82-c.gandi.net</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
+          <t>185.185.169.228</t>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr"/>
+          <t>kiiski.tarvainen.info</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -981,7 +991,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>effe.org</t>
+          <t>effd.org</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -990,56 +1000,71 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>2003-07-02</t>
+        </is>
+      </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>2003-08-02</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>2026-08-02</t>
-        </is>
-      </c>
+          <t>2026-07-02</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy Online Services Cayman Islands Ltd.</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>abuse@uniregistry.com</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n"/>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
+          <t>192.124.249.7</t>
         </is>
       </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr"/>
+          <t>alt1.aspmx.l.google.com</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1054,7 +1079,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>efff.org</t>
+          <t>effp.org</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1063,56 +1088,83 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>2021-07-08, 2021-07-08</t>
+        </is>
+      </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>2017-01-23</t>
+          <t>2024-06-13, 2024-06-08</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2031-07-08, 2031-07-08</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
+          <t>Redacted for Privacy</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>NAMECHEAP INC</t>
+        </is>
+      </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>abuse@namecheap.com, cdee6fecd59340bea9c50c370d25aac1.protect@withheldforprivacy.com</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n"/>
+          <t>IS</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>dns1.registrar-servers.com, dns2.registrar-servers.com</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>ns3.afternic.com, ns4.afternic.com</t>
+          <t>192.64.119.186</t>
         </is>
       </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr"/>
+          <t>mail.protonmail.ch</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1127,7 +1179,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>effx.org</t>
+          <t>efft.org</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1136,56 +1188,71 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>2018-05-17</t>
+        </is>
+      </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>2018-03-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>2027-03-19</t>
-        </is>
-      </c>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="n"/>
       <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="n"/>
+      <c r="P8" s="4" t="n"/>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns71.domaincontrol.com, ns72.domaincontrol.com</t>
         </is>
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
+          <t>52.37.117.203</t>
         </is>
       </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr"/>
+          <t>alt1.aspmx.l.google.com</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1200,7 +1267,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>effh.org</t>
+          <t>effc.org</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1211,56 +1278,79 @@
       <c r="E9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>1998-08-13</t>
+        </is>
+      </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2025-08-15, 2025-08-10</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>TUCOWS DOMAINS, INC.</t>
+        </is>
+      </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t>HOSTINGER operations, UAB</t>
+          <t>domainabuse@tucows.com, dnsmaster@zen.co.uk</t>
         </is>
       </c>
       <c r="P9" s="4" t="inlineStr">
         <is>
-          <t>abuse@hostinger.com</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="n"/>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
+        </is>
+      </c>
       <c r="R9" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns0.zen.co.uk, ns1.zen.co.uk</t>
         </is>
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>ns1.dns-parking.com, ns2.dns-parking.com</t>
+          <t>80.87.129.95</t>
         </is>
       </c>
       <c r="T9" s="4" t="inlineStr">
         <is>
-          <t>145.223.77.62</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>mx1.hostinger.com</t>
+          <t>effc-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1367,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>effg.org</t>
+          <t>effs.org</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1288,56 +1378,67 @@
       <c r="E10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="inlineStr"/>
-      <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>2000-04-17</t>
+        </is>
+      </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>2015-02-04</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="n"/>
       <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+        </is>
+      </c>
       <c r="O10" s="4" t="inlineStr">
         <is>
-          <t>DreamHost, LLC</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>domain-abuse@dreamhost.com</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="n"/>
+          <t>abuse@ascio.com</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="n"/>
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
+        </is>
+      </c>
       <c r="R10" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.nameservice.at, ns2.nameservice.at</t>
         </is>
       </c>
       <c r="S10" s="4" t="inlineStr">
         <is>
-          <t>ns1.dreamhost.com, ns2.dreamhost.com, ns3.dreamhost.com</t>
+          <t>83.65.2.30</t>
         </is>
       </c>
       <c r="T10" s="4" t="inlineStr">
         <is>
-          <t>173.236.142.191</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>mx1.dreamhost.com</t>
+          <t>mx.mymagenta.business</t>
         </is>
       </c>
     </row>
@@ -1354,67 +1455,78 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>effi.org</t>
+          <t>efn.org</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E11" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>1993-04-05</t>
+        </is>
+      </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>2001-09-06</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
-        </is>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>2028-09-06</t>
-        </is>
-      </c>
+          <t>2026-04-06</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="n"/>
       <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>eNom, LLC</t>
+        </is>
+      </c>
       <c r="O11" s="4" t="inlineStr">
         <is>
-          <t>Gandi SAS</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>abuse@support.gandi.net</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n"/>
+          <t>abuse@enom.com</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="n"/>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.peak.org, ns2.peak.org</t>
         </is>
       </c>
       <c r="S11" s="4" t="inlineStr">
         <is>
-          <t>ns-2-a.gandi.net, ns-33-b.gandi.net, ns-82-c.gandi.net</t>
+          <t>104.168.142.100</t>
         </is>
       </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
-          <t>185.185.169.228</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>kiiski.tarvainen.info</t>
+          <t>efn-org.mx.av-mx.com</t>
         </is>
       </c>
     </row>
@@ -1431,69 +1543,76 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>effd.org</t>
+          <t>efb.org</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E12" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>1998-09-13</t>
+        </is>
+      </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>2003-07-02</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>2026-07-02</t>
-        </is>
-      </c>
+          <t>2026-09-12</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="n"/>
       <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="n"/>
+      <c r="P12" s="4" t="n"/>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R12" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>192.124.249.7</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1508,81 +1627,76 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>effp.org</t>
+          <t>efv.org</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E13" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr"/>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>2003-04-23</t>
+        </is>
+      </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>2021-07-08, 2021-07-08</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>2024-06-13, 2024-06-08</t>
-        </is>
-      </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>2031-07-08, 2031-07-08</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
-        <is>
-          <t>Redacted for Privacy</t>
-        </is>
-      </c>
+          <t>2026-04-23</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="4" t="n"/>
       <c r="N13" s="4" t="inlineStr">
         <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O13" s="4" t="inlineStr">
         <is>
-          <t>NAMECHEAP INC</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>abuse@namecheap.com, cdee6fecd59340bea9c50c370d25aac1.protect@withheldforprivacy.com</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="n"/>
       <c r="Q13" s="4" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R13" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>dns1.registrar-servers.com, dns2.registrar-servers.com</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>192.64.119.186</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>mail.protonmail.ch</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1597,69 +1711,76 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>efft.org</t>
+          <t>evf.org</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E14" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F14" s="4" t="inlineStr"/>
-      <c r="G14" s="4" t="inlineStr"/>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>2001-01-25</t>
+        </is>
+      </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>2018-05-17</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="n"/>
       <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="n"/>
+      <c r="P14" s="4" t="n"/>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>ns71.domaincontrol.com, ns72.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>52.37.117.203</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1674,79 +1795,78 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>effc.org</t>
+          <t>edf.org</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E15" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>1991-08-27</t>
+        </is>
+      </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>1998-08-13</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>2025-08-15, 2025-08-10</t>
-        </is>
-      </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>2026-08-12</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
+          <t>2026-08-26</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="4" t="n"/>
       <c r="N15" s="4" t="inlineStr">
         <is>
-          <t>REDACTED FOR PRIVACY</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
-          <t>TUCOWS DOMAINS, INC.</t>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>domainabuse@tucows.com, dnsmaster@zen.co.uk</t>
-        </is>
-      </c>
+          <t>domain.operations@web.com</t>
+        </is>
+      </c>
+      <c r="P15" s="4" t="n"/>
       <c r="Q15" s="4" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>ns3-06.azure-dns.org, ns1-06.azure-dns.com, ns2-06.azure-dns.net, ns4-06.azure-dns.info</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>ns0.zen.co.uk, ns1.zen.co.uk</t>
+          <t>151.101.194.216</t>
         </is>
       </c>
       <c r="T15" s="4" t="inlineStr">
         <is>
-          <t>80.87.129.95</t>
-        </is>
-      </c>
-      <c r="U15" s="4" t="inlineStr">
-        <is>
-          <t>effc-org.mail.protection.outlook.com</t>
+          <t>edf-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -1763,67 +1883,86 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>effs.org</t>
+          <t>ebf.org</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E16" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>1997-05-14</t>
+        </is>
+      </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>2000-04-17</t>
+          <t>2024-06-20, 2024-06-20</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>PERFECT PRIVACY, LLC</t>
         </is>
       </c>
       <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
+      <c r="N16" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+          <t>domain.operations@web.com, h63rh6c3942@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>abuse@ascio.com</t>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>ns2.wixdns.net, ns3.wixdns.net</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>ns1.nameservice.at, ns2.nameservice.at</t>
+          <t>185.230.63.107</t>
         </is>
       </c>
       <c r="T16" s="4" t="inlineStr">
         <is>
-          <t>83.65.2.30</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>mx.mymagenta.business</t>
+          <t>alt1.aspmx.l.google.com</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1979,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>efn.org</t>
+          <t>mff.org</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -1851,56 +1990,75 @@
       <c r="E17" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>1996-03-06</t>
+        </is>
+      </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>1993-04-05</t>
+          <t>2021-01-12, 2021-01-12</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="L17" s="4" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>PERFECT PRIVACY, LLC</t>
         </is>
       </c>
       <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>Register.com - Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>eNom, LLC</t>
+          <t>domain.operations@web.com, a92ax4fd794@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
         <is>
-          <t>abuse@enom.com</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns-1503.awsdns-59.org, ns-1706.awsdns-21.co.uk, ns-261.awsdns-32.com, ns-592.awsdns-10.net</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>ns1.peak.org, ns2.peak.org</t>
+          <t>34.238.11.122</t>
         </is>
       </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
-          <t>104.168.142.100</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>efn-org.mx.av-mx.com</t>
+          <t>mxa-001b2501.gslb.pphosted.com</t>
         </is>
       </c>
     </row>
@@ -1917,7 +2075,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>efb.org</t>
+          <t>gff.org</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1928,54 +2086,69 @@
       <c r="E18" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>2003-04-23</t>
+        </is>
+      </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>1998-09-13</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="L18" s="4" t="inlineStr">
-        <is>
-          <t>2026-09-12</t>
-        </is>
-      </c>
+          <t>2026-04-23</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="n"/>
       <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t>CSC Corporate Domains, Inc.</t>
+        </is>
+      </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P18" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q18" s="4" t="n"/>
+          <t>domainabuse@cscglobal.com</t>
+        </is>
+      </c>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>dns1.p04.nsone.net, dns2.p04.nsone.net, dns3.p04.nsone.net, dns4.p04.nsone.net</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>75.2.33.211</t>
         </is>
       </c>
       <c r="T18" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="U18" s="4" t="inlineStr"/>
+          <t>mx1.hc2314-6.iphmx.com</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1990,7 +2163,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>efv.org</t>
+          <t>efd.org</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2001,54 +2174,69 @@
       <c r="E19" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>1999-11-26</t>
+        </is>
+      </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>2003-04-23</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t>2026-04-23</t>
-        </is>
-      </c>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="n"/>
       <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t>IONOS SE</t>
+        </is>
+      </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P19" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q19" s="4" t="n"/>
+          <t>abuse@ionos.com</t>
+        </is>
+      </c>
+      <c r="P19" s="4" t="n"/>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns1.livedns.co.uk, ns2.livedns.co.uk, ns3.livedns.co.uk</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>77.68.64.46</t>
         </is>
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="U19" s="4" t="inlineStr"/>
+          <t>mailserver.efd.org</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -2063,65 +2251,84 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>evf.org</t>
+          <t>cff.org</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>homoglyph</t>
         </is>
       </c>
       <c r="E20" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>1996-08-13</t>
+        </is>
+      </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>2001-01-25</t>
+          <t>2025-06-20, 2025-06-15</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
+          <t>2030-08-12</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="n"/>
       <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>domain.operations@web.com, hostmaster@cff.org</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns-1273.awsdns-31.org, ns-1692.awsdns-19.co.uk, ns-183.awsdns-22.com, ns-823.awsdns-38.net</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>151.101.1.193</t>
         </is>
       </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="U20" s="4" t="inlineStr"/>
+          <t>esa1.hc2873-2.iphmx.com</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -2136,71 +2343,78 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>edf.org</t>
+          <t>efgf.org</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E21" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>1991-08-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>2025-07-02, 2025-06-27</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>2026-08-26</t>
-        </is>
-      </c>
+          <t>2027-09-23</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="n"/>
       <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, netops@edf.org, hostmaster@environmentaldefense.org</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="n"/>
       <c r="Q21" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns63.domaincontrol.com, ns64.domaincontrol.com</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>ns3-06.azure-dns.org, ns1-06.azure-dns.com, ns2-06.azure-dns.net, ns4-06.azure-dns.info</t>
+          <t>13.248.243.5</t>
         </is>
       </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
-          <t>151.101.194.216</t>
-        </is>
-      </c>
-      <c r="U21" s="4" t="inlineStr">
-        <is>
-          <t>edf-org.mail.protection.outlook.com</t>
+          <t>mailstore1.secureserver.net</t>
         </is>
       </c>
     </row>
@@ -2217,75 +2431,90 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>ebf.org</t>
+          <t>seff.org</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E22" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F22" s="4" t="inlineStr"/>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>1999-12-23</t>
+        </is>
+      </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>1997-05-14</t>
+          <t>2024-11-29, 2024-11-24</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>2024-06-20, 2024-06-20</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>REDACTED FOR PRIVACY</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="n"/>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>TUCOWS DOMAINS, INC.</t>
+        </is>
+      </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>domainabuse@tucows.com, registry@beebyte.se</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, h63rh6c3942@networksolutionsprivateregistration.com</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ok https://icann.org/epp#ok, serverTransferProhibited https://icann.org/epp#serverTransferProhibited</t>
         </is>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.beebyte.net, ns2.beebyte.net, ns3.beebyte.net</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>ns2.wixdns.net, ns3.wixdns.net</t>
+          <t>185.133.207.39</t>
         </is>
       </c>
       <c r="T22" s="4" t="inlineStr">
         <is>
-          <t>185.230.63.107</t>
-        </is>
-      </c>
-      <c r="U22" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
+          <t>mail2-in.beebyte.se</t>
         </is>
       </c>
     </row>
@@ -2302,75 +2531,78 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>mff.org</t>
+          <t>edff.org</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E23" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F23" s="4" t="inlineStr"/>
-      <c r="G23" s="4" t="inlineStr"/>
-      <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>1996-03-06</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>2021-01-12, 2021-01-12</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>2026-03-07</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="N23" s="4" t="n"/>
+          <t>2027-04-16</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="4" t="n"/>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>Register.com - Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, a92ax4fd794@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="n"/>
       <c r="Q23" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns75.domaincontrol.com, ns76.domaincontrol.com</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>ns-1503.awsdns-59.org, ns-1706.awsdns-21.co.uk, ns-261.awsdns-32.com, ns-592.awsdns-10.net</t>
+          <t>185.230.63.107</t>
         </is>
       </c>
       <c r="T23" s="4" t="inlineStr">
         <is>
-          <t>34.238.11.122</t>
-        </is>
-      </c>
-      <c r="U23" s="4" t="inlineStr">
-        <is>
-          <t>mxa-001b2501.gslb.pphosted.com</t>
+          <t>alt1.aspmx.l.google.com</t>
         </is>
       </c>
     </row>
@@ -2387,67 +2619,78 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>gff.org</t>
+          <t>eftf.org</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr"/>
-      <c r="I24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>2001-04-18</t>
+        </is>
+      </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>2003-04-23</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>2026-04-23</t>
-        </is>
-      </c>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="n"/>
       <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>COREhub, S.R.L.</t>
+        </is>
+      </c>
       <c r="O24" s="4" t="inlineStr">
         <is>
-          <t>CSC Corporate Domains, Inc.</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>domainabuse@cscglobal.com</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="n"/>
+          <t>abuse@corehub.net</t>
+        </is>
+      </c>
+      <c r="P24" s="4" t="n"/>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
+        </is>
+      </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>dns-1.dfn.de, dns-2.dfn.de, dns-3.dfn.de, ns1.ptb.de</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>dns1.p04.nsone.net, dns2.p04.nsone.net, dns3.p04.nsone.net, dns4.p04.nsone.net</t>
+          <t>192.53.103.121</t>
         </is>
       </c>
       <c r="T24" s="4" t="inlineStr">
         <is>
-          <t>75.2.33.211</t>
-        </is>
-      </c>
-      <c r="U24" s="4" t="inlineStr">
-        <is>
-          <t>mx1.hc2314-6.iphmx.com</t>
+          <t>mx1.berlin.ptb.de</t>
         </is>
       </c>
     </row>
@@ -2464,69 +2707,88 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>efd.org</t>
+          <t>deff.org</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>2010-12-20, 2010-12-20</t>
+        </is>
+      </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>1999-11-26</t>
+          <t>2025-02-03, 2025-02-04</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-12-20, 2025-12-20</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
+          <t>This Domain For Sale Worldwide 3392225132</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>BuyDomains.com</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>AZDOMAINZ.COM, LLC</t>
+        </is>
+      </c>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>IONOS SE</t>
+          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
         </is>
       </c>
       <c r="P25" s="4" t="inlineStr">
         <is>
-          <t>abuse@ionos.com</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+        </is>
+      </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns.buydomains.com, this-domain-for-sale.com</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>ns1.livedns.co.uk, ns2.livedns.co.uk, ns3.livedns.co.uk</t>
-        </is>
-      </c>
-      <c r="T25" s="4" t="inlineStr">
-        <is>
-          <t>77.68.64.46</t>
-        </is>
-      </c>
-      <c r="U25" s="4" t="inlineStr">
-        <is>
-          <t>mailserver.efd.org</t>
-        </is>
-      </c>
+          <t>207.148.248.143</t>
+        </is>
+      </c>
+      <c r="T25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2541,71 +2803,78 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>cff.org</t>
+          <t>efrf.org</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>homoglyph</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E26" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>2012-08-24</t>
+        </is>
+      </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>1996-08-13</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>2025-06-20, 2025-06-15</t>
-        </is>
-      </c>
-      <c r="L26" s="4" t="inlineStr">
-        <is>
-          <t>2030-08-12</t>
-        </is>
-      </c>
+          <t>2026-08-24</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="n"/>
       <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O26" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P26" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, hostmaster@cff.org</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P26" s="4" t="n"/>
       <c r="Q26" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.sedoparking.com, ns2.sedoparking.com</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>ns-1273.awsdns-31.org, ns-1692.awsdns-19.co.uk, ns-183.awsdns-22.com, ns-823.awsdns-38.net</t>
+          <t>64.190.63.222</t>
         </is>
       </c>
       <c r="T26" s="4" t="inlineStr">
         <is>
-          <t>151.101.1.193</t>
-        </is>
-      </c>
-      <c r="U26" s="4" t="inlineStr">
-        <is>
-          <t>esa1.hc2873-2.iphmx.com</t>
+          <t>localhost</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2891,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>efgf.org</t>
+          <t>efdf.org</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -2633,56 +2902,67 @@
       <c r="E27" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>2000-09-04</t>
+        </is>
+      </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>2027-09-23</t>
-        </is>
-      </c>
+          <t>2026-09-04</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="n"/>
       <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>RegistryGate GmbH</t>
+        </is>
+      </c>
       <c r="O27" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P27" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q27" s="4" t="n"/>
+          <t>abuse@registrygate.com</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="n"/>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R27" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns5.kasserver.com, ns6.kasserver.com</t>
         </is>
       </c>
       <c r="S27" s="4" t="inlineStr">
         <is>
-          <t>ns63.domaincontrol.com, ns64.domaincontrol.com</t>
+          <t>85.13.146.87</t>
         </is>
       </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
-          <t>13.248.243.5</t>
-        </is>
-      </c>
-      <c r="U27" s="4" t="inlineStr">
-        <is>
-          <t>mailstore1.secureserver.net</t>
+          <t>w0066a93.kasserver.com</t>
         </is>
       </c>
     </row>
@@ -2699,79 +2979,78 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>seff.org</t>
+          <t>ef.org</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>1994-08-16</t>
+        </is>
+      </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>1999-12-23</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>2024-11-29, 2024-11-24</t>
-        </is>
-      </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
+          <t>2026-08-15</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="n"/>
+      <c r="M28" s="4" t="n"/>
       <c r="N28" s="4" t="inlineStr">
         <is>
-          <t>REDACTED FOR PRIVACY</t>
+          <t>easyDNS Technologies Inc.</t>
         </is>
       </c>
       <c r="O28" s="4" t="inlineStr">
         <is>
-          <t>TUCOWS DOMAINS, INC.</t>
-        </is>
-      </c>
-      <c r="P28" s="4" t="inlineStr">
-        <is>
-          <t>domainabuse@tucows.com, registry@beebyte.se</t>
-        </is>
-      </c>
+          <t>abuse@easydns.com</t>
+        </is>
+      </c>
+      <c r="P28" s="4" t="n"/>
       <c r="Q28" s="4" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R28" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, serverTransferProhibited https://icann.org/epp#serverTransferProhibited</t>
+          <t>ns3.easydns.org, ns1.easydns.com, ns2.easydns.com, ns6.easydns.net, remote2.easydns.com, remote1.easydns.com</t>
         </is>
       </c>
       <c r="S28" s="4" t="inlineStr">
         <is>
-          <t>ns1.beebyte.net, ns2.beebyte.net, ns3.beebyte.net</t>
+          <t>104.198.104.86</t>
         </is>
       </c>
       <c r="T28" s="4" t="inlineStr">
         <is>
-          <t>185.133.207.39</t>
-        </is>
-      </c>
-      <c r="U28" s="4" t="inlineStr">
-        <is>
-          <t>mail2-in.beebyte.se</t>
+          <t>d161249a.ess.barracudanetworks.com</t>
         </is>
       </c>
     </row>
@@ -2788,69 +3067,88 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>edff.org</t>
+          <t>eeff.org</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>repetition</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
-      <c r="I29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>2010-04-19, 2010-04-19</t>
+        </is>
+      </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2025-06-03, 2025-06-04</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2026-04-19, 2026-04-19</t>
         </is>
       </c>
       <c r="L29" s="4" t="inlineStr">
         <is>
-          <t>2027-04-16</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
+          <t>This Domain For Sale Worldwide 3392225132</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>BuyDomains.com</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>AZDOMAINZ.COM, LLC</t>
+        </is>
+      </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+        </is>
+      </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns.buydomains.com, this-domain-for-sale.com</t>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>ns75.domaincontrol.com, ns76.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T29" s="4" t="inlineStr">
-        <is>
-          <t>185.230.63.107</t>
-        </is>
-      </c>
-      <c r="U29" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>207.148.248.143</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2865,67 +3163,78 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>eftf.org</t>
+          <t>ecf.org</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>2001-10-24</t>
+        </is>
+      </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>2001-04-18</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>2026-04-18</t>
-        </is>
-      </c>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="n"/>
       <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t>COREhub, S.R.L.</t>
-        </is>
-      </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>abuse@corehub.net</t>
-        </is>
-      </c>
-      <c r="Q30" s="4" t="n"/>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P30" s="4" t="n"/>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>carol.ns.cloudflare.com, dante.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
         <is>
-          <t>dns-1.dfn.de, dns-2.dfn.de, dns-3.dfn.de, ns1.ptb.de</t>
+          <t>104.21.29.129</t>
         </is>
       </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
-          <t>192.53.103.121</t>
-        </is>
-      </c>
-      <c r="U30" s="4" t="inlineStr">
-        <is>
-          <t>mx1.berlin.ptb.de</t>
+          <t>ecf-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -2942,77 +3251,88 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>deff.org</t>
+          <t>rff.org</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>1994-04-22</t>
+        </is>
+      </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>2010-12-20, 2010-12-20</t>
+          <t>2024-02-28, 2025-10-21</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>2025-02-03, 2025-02-04</t>
+          <t>2029-04-23</t>
         </is>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
-          <t>2025-12-20, 2025-12-20</t>
-        </is>
-      </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>This Domain For Sale Worldwide 3392225132</t>
-        </is>
-      </c>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="n"/>
       <c r="N31" s="4" t="inlineStr">
         <is>
-          <t>BuyDomains.com</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O31" s="4" t="inlineStr">
         <is>
-          <t>AZDOMAINZ.COM, LLC</t>
+          <t>domain.operations@web.com, xb4zk57j3q5@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P31" s="4" t="inlineStr">
         <is>
-          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
+          <t>US</t>
         </is>
       </c>
       <c r="Q31" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+          <t>brianna.ns.cloudflare.com, lynn.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
-          <t>ns.buydomains.com, this-domain-for-sale.com</t>
+          <t>104.26.0.47</t>
         </is>
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t>207.148.248.143</t>
-        </is>
-      </c>
-      <c r="U31" s="4" t="inlineStr"/>
+          <t>rff-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -3027,67 +3347,86 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>efdf.org</t>
+          <t>efc.org</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F32" s="4" t="inlineStr"/>
-      <c r="G32" s="4" t="inlineStr"/>
-      <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>1996-02-11</t>
+        </is>
+      </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>2000-09-04</t>
+          <t>2023-12-22, 2023-12-14</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2029-02-12</t>
         </is>
       </c>
       <c r="L32" s="4" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>PERFECT PRIVACY, LLC</t>
         </is>
       </c>
       <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>RegistryGate GmbH</t>
+          <t>domain.operations@web.com, zp9qy68737m@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
         <is>
-          <t>abuse@registrygate.com</t>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns7.worldnic.com, ns8.worldnic.com</t>
         </is>
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t>ns5.kasserver.com, ns6.kasserver.com</t>
+          <t>141.193.213.20</t>
         </is>
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t>85.13.146.87</t>
-        </is>
-      </c>
-      <c r="U32" s="4" t="inlineStr">
-        <is>
-          <t>w0066a93.kasserver.com</t>
+          <t>efc-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -3104,67 +3443,86 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>ef.org</t>
+          <t>etf.org</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>omission</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F33" s="4" t="inlineStr"/>
-      <c r="G33" s="4" t="inlineStr"/>
-      <c r="H33" s="4" t="inlineStr"/>
-      <c r="I33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>1995-10-03</t>
+        </is>
+      </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>1994-08-16</t>
+          <t>2025-08-10, 2025-08-05</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>PERFECT PRIVACY, LLC</t>
         </is>
       </c>
       <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
-          <t>easyDNS Technologies Inc.</t>
+          <t>domain.operations@web.com, xg97j38t5rw@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P33" s="4" t="inlineStr">
         <is>
-          <t>abuse@easydns.com</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns19.worldnic.com, ns20.worldnic.com</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t>ns3.easydns.org, ns1.easydns.com, ns2.easydns.com, ns6.easydns.net, remote2.easydns.com, remote1.easydns.com</t>
+          <t>209.17.116.163</t>
         </is>
       </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
-          <t>104.198.104.86</t>
-        </is>
-      </c>
-      <c r="U33" s="4" t="inlineStr">
-        <is>
-          <t>d161249a.ess.barracudanetworks.com</t>
+          <t>etf-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -3181,77 +3539,80 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>eeff.org</t>
+          <t>zff.org</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F34" s="4" t="inlineStr"/>
-      <c r="G34" s="4" t="inlineStr"/>
-      <c r="H34" s="4" t="inlineStr"/>
-      <c r="I34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>1998-05-11</t>
+        </is>
+      </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>2010-04-19, 2010-04-19</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>2025-06-03, 2025-06-04</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
-        <is>
-          <t>2026-04-19, 2026-04-19</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>This Domain For Sale Worldwide 3392225132</t>
-        </is>
-      </c>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="4" t="n"/>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t>BuyDomains.com</t>
+          <t>eNom, LLC</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>AZDOMAINZ.COM, LLC</t>
-        </is>
-      </c>
-      <c r="P34" s="4" t="inlineStr">
-        <is>
-          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
-        </is>
-      </c>
+          <t>abuse@enom.com</t>
+        </is>
+      </c>
+      <c r="P34" s="4" t="n"/>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+          <t>ns0.dnsmadeeasy.com, ns1.dnsmadeeasy.com, ns2.dnsmadeeasy.com, ns3.dnsmadeeasy.com, ns4.dnsmadeeasy.com</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>ns.buydomains.com, this-domain-for-sale.com</t>
+          <t>216.24.57.1</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>207.148.248.143</t>
-        </is>
-      </c>
-      <c r="U34" s="4" t="inlineStr"/>
+          <t>zff-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -3266,67 +3627,86 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>ecf.org</t>
+          <t>efforg.com</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>various</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>2010-07-23, 2010-07-22</t>
+        </is>
+      </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>2001-10-24</t>
+          <t>2025-07-23, 2025-07-23</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2026-07-23, 2026-07-22</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>Domain Admin</t>
         </is>
       </c>
       <c r="M35" s="4" t="n"/>
-      <c r="N35" s="4" t="n"/>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>abuse@godaddy.com, domain@holtwork.com</t>
         </is>
       </c>
       <c r="P35" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="n"/>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns67.domaincontrol.com, ns68.domaincontrol.com</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
         <is>
-          <t>carol.ns.cloudflare.com, dante.ns.cloudflare.com</t>
+          <t>15.197.225.128</t>
         </is>
       </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
-          <t>104.21.29.129</t>
-        </is>
-      </c>
-      <c r="U35" s="4" t="inlineStr">
-        <is>
-          <t>ecf-org.mail.protection.outlook.com</t>
+          <t>mailstore1.secureserver.net</t>
         </is>
       </c>
     </row>
@@ -3343,75 +3723,78 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>rff.org</t>
+          <t>iff.org</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>vowel-swap</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>2001-11-14</t>
+        </is>
+      </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>1994-04-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>2024-02-28, 2025-10-21</t>
-        </is>
-      </c>
-      <c r="L36" s="4" t="inlineStr">
-        <is>
-          <t>2029-04-23</t>
-        </is>
-      </c>
-      <c r="M36" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="N36" s="4" t="n"/>
+          <t>2026-11-14</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, xb4zk57j3q5@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P36" s="4" t="n"/>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns-1402.awsdns-47.org, ns-1939.awsdns-50.co.uk, ns-236.awsdns-29.com, ns-590.awsdns-09.net</t>
         </is>
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>brianna.ns.cloudflare.com, lynn.ns.cloudflare.com</t>
+          <t>199.16.172.59</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
-          <t>104.26.0.47</t>
-        </is>
-      </c>
-      <c r="U36" s="4" t="inlineStr">
-        <is>
-          <t>rff-org.mail.protection.outlook.com</t>
+          <t>iff-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -3428,474 +3811,504 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>efc.org</t>
+          <t>off.org</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>vowel-swap</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>1997-08-01</t>
+        </is>
+      </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>1996-02-11</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="K37" s="4" t="inlineStr">
         <is>
-          <t>2023-12-22, 2023-12-14</t>
-        </is>
-      </c>
-      <c r="L37" s="4" t="inlineStr">
-        <is>
-          <t>2029-02-12</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="N37" s="4" t="n"/>
+          <t>2031-07-31</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O37" s="4" t="inlineStr">
         <is>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
+          <t>dante.ns.cloudflare.com, princess.ns.cloudflare.com</t>
+        </is>
+      </c>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t>3.34.29.177</t>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>effu.org</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HTTP: 404</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2019-01-17, 2019-01-17</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2024-01-13, 2024-01-08</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2026-01-17, 2026-01-17</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Redacted for Privacy</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NAMECHEAP INC</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>abuse@namecheap.com, 7f079307da8f44a78cb2147aeb3bb0a3.protect@withheldforprivacy.com</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>ns1.messagingengine.com, ns2.messagingengine.com</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>103.168.172.37</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>in1-smtp.messagingengine.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>effv.org</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>http_404</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2026-07-11</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Cloudflare, Inc.</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>registrar-abuse@cloudflare.com</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>desi.ns.cloudflare.com, merlin.ns.cloudflare.com</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>104.21.81.33</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>mx01.mail.icloud.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>effa.org</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http_404</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1997-12-31</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>Network Solutions, LLC</t>
         </is>
       </c>
-      <c r="P37" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, zp9qy68737m@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="Q37" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>domain.operations@web.com</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
-      <c r="S37" s="4" t="inlineStr">
-        <is>
-          <t>ns7.worldnic.com, ns8.worldnic.com</t>
-        </is>
-      </c>
-      <c r="T37" s="4" t="inlineStr">
-        <is>
-          <t>141.193.213.20</t>
-        </is>
-      </c>
-      <c r="U37" s="4" t="inlineStr">
-        <is>
-          <t>efc-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>etf.org</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>replacement</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr"/>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>1995-10-03</t>
-        </is>
-      </c>
-      <c r="K38" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-10, 2025-08-05</t>
-        </is>
-      </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t>2026-10-02</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="N38" s="4" t="n"/>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, xg97j38t5rw@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
-        </is>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>ns19.worldnic.com, ns20.worldnic.com</t>
-        </is>
-      </c>
-      <c r="T38" s="4" t="inlineStr">
-        <is>
-          <t>209.17.116.163</t>
-        </is>
-      </c>
-      <c r="U38" s="4" t="inlineStr">
-        <is>
-          <t>etf-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>zff.org</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>replacement</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>1998-05-11</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="n"/>
-      <c r="N39" s="4" t="n"/>
-      <c r="O39" s="4" t="inlineStr">
-        <is>
-          <t>eNom, LLC</t>
-        </is>
-      </c>
-      <c r="P39" s="4" t="inlineStr">
-        <is>
-          <t>abuse@enom.com</t>
-        </is>
-      </c>
-      <c r="Q39" s="4" t="n"/>
-      <c r="R39" s="4" t="inlineStr">
-        <is>
-          <t>ok https://icann.org/epp#ok</t>
-        </is>
-      </c>
-      <c r="S39" s="4" t="inlineStr">
-        <is>
-          <t>ns0.dnsmadeeasy.com, ns1.dnsmadeeasy.com, ns2.dnsmadeeasy.com, ns3.dnsmadeeasy.com, ns4.dnsmadeeasy.com</t>
-        </is>
-      </c>
-      <c r="T39" s="4" t="inlineStr">
-        <is>
-          <t>216.24.57.1</t>
-        </is>
-      </c>
-      <c r="U39" s="4" t="inlineStr">
-        <is>
-          <t>zff-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>efforg.com</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>2010-07-23, 2010-07-22</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>2025-07-23, 2025-07-23</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>2026-07-23, 2026-07-22</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t>Domain Admin</t>
-        </is>
-      </c>
-      <c r="N40" s="4" t="n"/>
-      <c r="O40" s="4" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>effe.org</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2003-08-02</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2026-08-02</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>GoDaddy Online Services Cayman Islands Ltd.</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>abuse@uniregistry.com</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>efff.org</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2017-01-23</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>GoDaddy.com, LLC</t>
         </is>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com, domain@holtwork.com</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
-      <c r="S40" s="4" t="inlineStr">
-        <is>
-          <t>ns67.domaincontrol.com, ns68.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T40" s="4" t="inlineStr">
-        <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="U40" s="4" t="inlineStr">
-        <is>
-          <t>mailstore1.secureserver.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>iff.org</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>vowel-swap</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>2001-11-14</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>2024-12-29</t>
-        </is>
-      </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t>2026-11-14</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="n"/>
-      <c r="N41" s="4" t="n"/>
-      <c r="O41" s="4" t="inlineStr">
-        <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P41" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q41" s="4" t="n"/>
-      <c r="R41" s="4" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
-      <c r="S41" s="4" t="inlineStr">
-        <is>
-          <t>ns-1402.awsdns-47.org, ns-1939.awsdns-50.co.uk, ns-236.awsdns-29.com, ns-590.awsdns-09.net</t>
-        </is>
-      </c>
-      <c r="T41" s="4" t="inlineStr">
-        <is>
-          <t>199.16.172.59</t>
-        </is>
-      </c>
-      <c r="U41" s="4" t="inlineStr">
-        <is>
-          <t>iff-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>off.org</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>vowel-swap</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F42" s="4" t="inlineStr"/>
-      <c r="G42" s="4" t="inlineStr"/>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr"/>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>1997-08-01</t>
-        </is>
-      </c>
-      <c r="K42" s="4" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="L42" s="4" t="inlineStr">
-        <is>
-          <t>2031-07-31</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="n"/>
-      <c r="N42" s="4" t="n"/>
-      <c r="O42" s="4" t="inlineStr">
-        <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q42" s="4" t="n"/>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>dante.ns.cloudflare.com, princess.ns.cloudflare.com</t>
-        </is>
-      </c>
-      <c r="T42" s="4" t="inlineStr">
-        <is>
-          <t>3.34.29.177</t>
-        </is>
-      </c>
-      <c r="U42" s="4" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>ns3.afternic.com, ns4.afternic.com</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3921,66 +4334,62 @@
       <c r="E43" t="n">
         <v>25</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2025-09-16, 2025-09-16</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
           <t>2026-05-11</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Super Privacy Service LTD c/o Dynadot</t>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>DYNADOT LLC</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
           <t>abuse@dynadot.com</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.afternic.com, ns2.afternic.com, verification-ndzevshmc6qrwu5uexsxir.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com, verification-ndzevshmc6qrwu5uexsxir.ns101.verify.hn</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
           <t>13.248.169.48</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3995,7 +4404,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>effo.org</t>
+          <t>effx.org</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4006,51 +4415,62 @@
       <c r="E44" t="n">
         <v>25</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2018-03-19</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
+          <t>2027-03-19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>ns39.domaincontrol.com, ns40.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>15.197.148.33</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr"/>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4065,7 +4485,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>effw.org</t>
+          <t>effo.org</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4076,55 +4496,62 @@
       <c r="E45" t="n">
         <v>25</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2008-03-06</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2028-03-06</t>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns39.domaincontrol.com, ns40.domaincontrol.com</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
           <t>15.197.148.33</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>effw.org.mx1.fulcrumgroup.rcimx.net</t>
-        </is>
-      </c>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4139,7 +4566,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>effb.org</t>
+          <t>effw.org</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4150,68 +4577,64 @@
       <c r="E46" t="n">
         <v>25</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2008-03-06</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2000-07-18</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2025-09-01, 2025-09-07</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2026-07-18</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
+          <t>2028-03-06</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Europäischer Fachverband  für Blendschutz am Bildschirmarbeitsplatz e.V.</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>InterNetX GmbH</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>domain-abuse@internetx.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientTransferProhibited https://www.icann.org/epp#clientTransferProhibited</t>
+          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>ns0.cluster-team.net, ns1.cluster-team.net, ns2.cluster-team.net, ns3.cluster-team.net</t>
+          <t>15.197.148.33</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>185.157.21.91</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>mail.cluster-team.com</t>
+          <t>effw.org.mx1.fulcrumgroup.rcimx.net</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4651,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>eff4.org</t>
+          <t>effb.org</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4239,53 +4662,79 @@
       <c r="E47" t="n">
         <v>25</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2000-07-18</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2007-12-10</t>
+          <t>2025-09-01, 2025-09-07</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Europäischer Fachverband  für Blendschutz am Bildschirmarbeitsplatz e.V.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>InterNetX GmbH</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+          <t>domain-abuse@internetx.com</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>abuse@ascio.com</t>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientTransferProhibited https://www.icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>ns0.cluster-team.net, ns1.cluster-team.net, ns2.cluster-team.net, ns3.cluster-team.net</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>ns.hostpoint.ch, ns2.hostpoint.ch, ns3.hostpoint.ch</t>
+          <t>185.157.21.91</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>217.26.48.101</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>mx1.mail.hostpoint.ch</t>
+          <t>mail.cluster-team.com</t>
         </is>
       </c>
     </row>
@@ -4302,64 +4751,75 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>enf.org</t>
+          <t>eff4.org</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>25</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2007-12-10</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1998-01-09</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@ascio.com</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns.hostpoint.ch, ns2.hostpoint.ch, ns3.hostpoint.ch</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>ns03.domaincontrol.com, ns04.domaincontrol.com</t>
+          <t>217.26.48.101</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>104.198.104.86</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
+          <t>mx1.mail.hostpoint.ch</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4836,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>egf.org</t>
+          <t>enf.org</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4387,51 +4847,66 @@
       <c r="E49" t="n">
         <v>25</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1998-01-09</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2001-01-25</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2026-01-25</t>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns03.domaincontrol.com, ns04.domaincontrol.com</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
+          <t>104.198.104.86</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>alt1.aspmx.l.google.com</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4446,7 +4921,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>aff.org</t>
+          <t>egf.org</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4457,65 +4932,62 @@
       <c r="E50" t="n">
         <v>25</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2001-01-25</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1996-12-03, 1996-12-03</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2025-07-17, 2024-11-17</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Squarespace Domains II LLC</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>abuse-complaints@squarespace.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, client delete prohibited http://www.icann.org/epp#client delete prohibited, client transfer prohibited http://www.icann.org/epp#client transfer prohibited</t>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>ns-cloud-b1.googledomains.com, ns-cloud-b4.googledomains.com, ns-cloud-b2.googledomains.com, ns-cloud-b3.googledomains.com</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>198.185.159.145</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4530,7 +5002,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>uff.org</t>
+          <t>aff.org</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4541,51 +5013,76 @@
       <c r="E51" t="n">
         <v>25</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1996-12-03, 1996-12-03</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2001-04-16</t>
+          <t>2025-07-17, 2024-11-17</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Squarespace Domains II LLC</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>PDR Ltd. d/b/a PublicDomainRegistry.com</t>
+          <t>abuse-complaints@squarespace.com</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>abuse@publicdomainregistry.com</t>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, client delete prohibited http://www.icann.org/epp#client delete prohibited, client transfer prohibited http://www.icann.org/epp#client transfer prohibited</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns-cloud-b1.googledomains.com, ns-cloud-b4.googledomains.com, ns-cloud-b2.googledomains.com, ns-cloud-b3.googledomains.com</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>ns1.bodis.com, ns2.bodis.com</t>
+          <t>198.185.159.145</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>199.59.243.228</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
+          <t>alt1.aspmx.l.google.com</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4600,7 +5097,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>dff.org</t>
+          <t>uff.org</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4611,61 +5108,62 @@
       <c r="E52" t="n">
         <v>25</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2001-04-16</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2001-01-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2025-02-28, 2024-01-28</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2034-01-26</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
+          <t>2026-04-16</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>PDR Ltd. d/b/a PublicDomainRegistry.com</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, pe74p6yn9ys@networksolutionsprivateregistration.com</t>
+          <t>abuse@publicdomainregistry.com</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.bodis.com, ns2.bodis.com</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>dns1.zoneedit.com, dns2.zoneedit.com, dns3.zoneedit.com, ns7.worldnic.com, ns8.worldnic.com</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>208.91.197.27</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
+          <t>199.59.243.228</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4680,7 +5178,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>efg.org</t>
+          <t>dff.org</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4691,61 +5189,72 @@
       <c r="E53" t="n">
         <v>25</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2001-01-26</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2003-04-25</t>
+          <t>2025-02-28, 2024-01-28</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2025-04-06, 2025-04-01</t>
+          <t>2034-01-26</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Howard Lee</t>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>DYNADOT LLC</t>
+          <t>domain.operations@web.com, pe74p6yn9ys@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>abuse@dynadot.com, webmaster@howardlee.com</t>
+          <t>US</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>dns1.zoneedit.com, dns2.zoneedit.com, dns3.zoneedit.com, ns7.worldnic.com, ns8.worldnic.com</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>ns1.dyna-ns.net, ns2.dyna-ns.net</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>69.163.178.20</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr"/>
+          <t>208.91.197.27</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4760,76 +5269,73 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>e-ff.org</t>
+          <t>efg.org</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>hyphenation</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>25</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2003-04-25</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2025-09-26, 2025-09-17</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Domain.com - Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, kk2e62aj788@networksolutionsprivateregistration.com</t>
+          <t>abuse@dynadot.com</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.dyna-ns.net, ns2.dyna-ns.net</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>ns1.domain.com, ns2.domain.com</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>66.96.162.149</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>mx.e-ff.org</t>
-        </is>
-      </c>
+          <t>69.163.178.20</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4844,62 +5350,77 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ecff.org</t>
+          <t>e-ff.org</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>hyphenation</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>25</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Domain.com - Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>DropCatch.com 980 LLC</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>abuse@NameBright.com</t>
+          <t>domain.operations@web.com</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>ns1.domain.com, ns2.domain.com</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
+          <t>66.96.162.149</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
+          <t>mx.e-ff.org</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4914,7 +5435,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>efcf.org</t>
+          <t>ecff.org</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4925,51 +5446,62 @@
       <c r="E56" t="n">
         <v>25</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2018-02-05</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2027-02-05</t>
+          <t>2026-03-05</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>DropCatch.com 980 LLC</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@NameBright.com</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
           <t>13.248.169.48</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4984,7 +5516,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>esff.org</t>
+          <t>efcf.org</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4995,51 +5527,62 @@
       <c r="E57" t="n">
         <v>25</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2018-02-05</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2026-11-27</t>
+          <t>2027-02-05</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>ns3.afternic.com, ns4.afternic.com, verification-dbgjncnnzmfgmpuki3e6hz.ns101.verify.hn</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
           <t>13.248.169.48</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5054,7 +5597,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>reff.org</t>
+          <t>esff.org</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5065,51 +5608,62 @@
       <c r="E58" t="n">
         <v>25</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2017-04-12</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2026-04-12</t>
+          <t>2026-11-27</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Wild West Domains, LLC</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>abuse@wildwestdomains.com</t>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns3.afternic.com, ns4.afternic.com, verification-dbgjncnnzmfgmpuki3e6hz.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com, verification-yqwlayzppiicikkzjkdghq.ns101.verify.hn</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
           <t>13.248.169.48</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5124,7 +5678,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>weff.org</t>
+          <t>reff.org</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5135,51 +5689,62 @@
       <c r="E59" t="n">
         <v>25</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2017-04-12</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2026-10-08</t>
+          <t>2026-04-12</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Wild West Domains, LLC</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@wildwestdomains.com</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns1.afternic.com, ns2.afternic.com, verification-yqwlayzppiicikkzjkdghq.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
           <t>13.248.169.48</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5194,7 +5759,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>egff.org</t>
+          <t>weff.org</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5205,55 +5770,62 @@
       <c r="E60" t="n">
         <v>25</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2018-10-08</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2026-05-06</t>
+          <t>2026-10-08</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>abuse@ascio.com</t>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>ns01.one.com, ns02.one.com</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>46.30.211.38</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>mx1.pub.mailpod11-cph3.one.com</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5268,7 +5840,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>zeff.org</t>
+          <t>egff.org</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5279,53 +5851,64 @@
       <c r="E61" t="n">
         <v>25</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2003-01-08</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
+          <t>2026-05-06</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>DNC Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>abuse@directnic.com</t>
+          <t>abuse@ascio.com</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns01.one.com, ns02.one.com</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
+          <t>46.30.211.38</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>58.96.84.113</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>mail.zeff.org</t>
+          <t>mx1.pub.mailpod11-cph3.one.com</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5925,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>efrf.org</t>
+          <t>zeff.org</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5353,53 +5936,64 @@
       <c r="E62" t="n">
         <v>25</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2003-01-08</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2012-08-24</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>2026-08-24</t>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>DNC Holdings, Inc.</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@directnic.com</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>ns1.sedoparking.com, ns2.sedoparking.com</t>
+          <t>58.96.84.113</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>64.190.63.222</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>localhost</t>
+          <t>mail.zeff.org</t>
         </is>
       </c>
     </row>
@@ -5427,51 +6021,62 @@
       <c r="E63" t="n">
         <v>25</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1996-05-18</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1996-05-18</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
           <t>2027-05-19</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>elsa.ns.cloudflare.com, simon.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>elsa.ns.cloudflare.com, simon.ns.cloudflare.com</t>
+          <t>104.26.14.69</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
-        <is>
-          <t>104.26.14.69</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
         <is>
           <t>ff-org.mail.protection.outlook.com</t>
         </is>
@@ -5501,56 +6106,67 @@
       <c r="E64" t="n">
         <v>25</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1996-07-09</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1996-07-09</t>
+          <t>2025-07-06, 2025-07-01</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2025-07-06, 2025-07-01</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
           <t>2034-07-08</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>domain.operations@web.com, sbaily@EFR.ORG, itsupport@efr.org</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, sbaily@EFR.ORG, itsupport@efr.org</t>
+          <t>US</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>kate.ns.cloudflare.com, mark.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>kate.ns.cloudflare.com, mark.ns.cloudflare.com</t>
+          <t>104.26.12.189</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
-        <is>
-          <t>104.26.12.189</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
         <is>
           <t>mail.efr.org</t>
         </is>
@@ -5580,56 +6196,62 @@
       <c r="E65" t="n">
         <v>25</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1995-05-28</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1995-05-28</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2024-12-19, 2024-12-19</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
           <t>2027-05-27</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, it@sff.org</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns55.worldnic.com, ns56.worldnic.com</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>ns55.worldnic.com, ns56.worldnic.com</t>
+          <t>141.193.213.21</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
-        <is>
-          <t>141.193.213.21</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
         <is>
           <t>sff-org.mail.protection.outlook.com</t>
         </is>
@@ -5659,51 +6281,62 @@
       <c r="E66" t="n">
         <v>25</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2014-09-11</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
           <t>2026-09-11</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Name.com, Inc.</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Name.com, Inc.</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
           <t>abuse@name.com</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, autoRenewPeriod https://icann.org/epp#autoRenewPeriod</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, autoRenewPeriod https://icann.org/epp#autoRenewPeriod</t>
+          <t>ns1.bodis.com, ns2.bodis.com</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>ns1.bodis.com, ns2.bodis.com</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
           <t>199.59.243.228</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5729,66 +6362,62 @@
       <c r="E67" t="n">
         <v>25</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1998-03-14</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1998-03-14</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
           <t>2026-03-13</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Super Privacy Service LTD c/o Dynadot</t>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>DYNADOT LLC</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
           <t>abuse@dynadot.com</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>launch1.spaceship.net, launch2.spaceship.net</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>launch1.spaceship.net, launch2.spaceship.net</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
           <t>44.232.173.249</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5815,60 +6444,53 @@
         <v>10</v>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1999-07-21</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1999-07-21</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2025-07-21, 2025-07-16</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
           <t>2027-07-21</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, nm6dd7cq5s8@networksolutionsprivateregistration.com</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.arabellek.com, ns2.arabellek.com</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>ns1.arabellek.com, ns2.arabellek.com</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
           <t>!ServFail</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5894,51 +6516,58 @@
       <c r="E69" t="n">
         <v>10</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2008-08-05</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
           <t>2026-08-05</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns47.domaincontrol.com, ns48.domaincontrol.com</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>ns47.domaincontrol.com, ns48.domaincontrol.com</t>
+          <t>173.198.158.80</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
-        <is>
-          <t>173.198.158.80</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
         <is>
           <t>mailstore1.secureserver.net</t>
         </is>
@@ -5968,66 +6597,73 @@
       <c r="E70" t="n">
         <v>10</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2016-12-10, 2016-12-10</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2016-12-10, 2016-12-10</t>
+          <t>2024-11-15, 2024-11-10</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2024-11-15, 2024-11-10</t>
+          <t>2025-12-10, 2025-12-10</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-12-10, 2025-12-10</t>
+          <t>Redacted for Privacy</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Redacted for Privacy</t>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
+          <t>NAMECHEAP INC</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>NAMECHEAP INC</t>
+          <t>abuse@namecheap.com, 7e19de8a791047929391120a1b81eb08.protect@withheldforprivacy.com, doms@yashar.io</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>abuse@namecheap.com, 7e19de8a791047929391120a1b81eb08.protect@withheldforprivacy.com, doms@yashar.io</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns1.arandomserver.com, ns2.arandomserver.com</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>ns1.arandomserver.com, ns2.arandomserver.com</t>
+          <t>85.239.53.148</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
-        <is>
-          <t>85.239.53.148</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
         <is>
           <t>etff.org</t>
         </is>
@@ -6057,51 +6693,58 @@
       <c r="E71" t="n">
         <v>10</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1997-11-04</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1997-11-04</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
           <t>2025-11-03</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>deborah.ns.cloudflare.com, john.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>deborah.ns.cloudflare.com, john.ns.cloudflare.com</t>
+          <t>104.21.55.229</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
-        <is>
-          <t>104.21.55.229</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
         <is>
           <t>wff-org.mail.protection.outlook.com</t>
         </is>
@@ -6131,56 +6774,58 @@
       <c r="E72" t="n">
         <v>10</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1997-01-17</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1997-01-17</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2021-11-20, 2024-01-10</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
           <t>2027-01-18</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com, hanna.twiss-brooks@sbims.com</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ns10.worldnic.com, ns9.worldnic.com</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>ns10.worldnic.com, ns9.worldnic.com</t>
+          <t>205.186.179.16</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
-        <is>
-          <t>205.186.179.16</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
         <is>
           <t>mx1.emailsrvr.com</t>
         </is>
@@ -6210,51 +6855,58 @@
       <c r="E73" t="n">
         <v>10</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No Scan Available</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1996-03-11</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1996-03-11</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
           <t>2026-03-12</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>DNC Holdings, Inc.</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>DNC Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
           <t>abuse@directnic.com</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
+          <t>198.17.44.149</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
-        <is>
-          <t>198.17.44.149</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
         <is>
           <t>fef-org.mail.protection.outlook.com</t>
         </is>
@@ -6298,7 +6950,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-22 00:14:03</t>
+          <t>2025-10-22 23:31:18</t>
         </is>
       </c>
     </row>

--- a/results/sample.xlsx
+++ b/results/sample.xlsx
@@ -529,10 +529,10 @@
         <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -561,8 +561,8 @@
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="24" customWidth="1" min="9" max="9"/>
     <col width="24" customWidth="1" min="10" max="10"/>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0f29-8626-7138-93a6-61d09cb2cc66/</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>64 cert(s)</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>effg.org</t>
+          <t>effu.org</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -824,51 +824,63 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-7524-769c-b198-106c377144f9/</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>4 cert(s)</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 404</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>2015-02-04</t>
+          <t>2019-01-17, 2019-01-17</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2024-01-13, 2024-01-08</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
+          <t>2026-01-17, 2026-01-17</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>Redacted for Privacy</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
+        </is>
+      </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
-          <t>DreamHost, LLC</t>
+          <t>NAMECHEAP INC</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>domain-abuse@dreamhost.com</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="n"/>
+          <t>abuse@namecheap.com, 7f079307da8f44a78cb2147aeb3bb0a3.protect@withheldforprivacy.com</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
@@ -876,17 +888,17 @@
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>ns1.dreamhost.com, ns2.dreamhost.com, ns3.dreamhost.com</t>
+          <t>ns1.messagingengine.com, ns2.messagingengine.com</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>173.236.142.191</t>
+          <t>103.168.172.37</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>mx1.dreamhost.com</t>
+          <t>in1-smtp.messagingengine.com</t>
         </is>
       </c>
     </row>
@@ -903,7 +915,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>effi.org</t>
+          <t>effa.org</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -912,16 +924,16 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-7281-757e-9066-b5a9cbc84569/</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>9 cert(s)</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -931,29 +943,29 @@
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>2001-09-06</t>
+          <t>1997-12-31</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>2028-09-06</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>Gandi SAS</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>abuse@support.gandi.net</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="P5" s="4" t="n"/>
@@ -964,19 +976,15 @@
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>ns-2-a.gandi.net, ns-33-b.gandi.net, ns-82-c.gandi.net</t>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>185.185.169.228</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>kiiski.tarvainen.info</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -991,7 +999,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>effd.org</t>
+          <t>effe.org</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1000,16 +1008,16 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-726a-729f-bff7-22f0f044129d/</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>8 cert(s)</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
@@ -1019,29 +1027,29 @@
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>2003-07-02</t>
+          <t>2003-08-02</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>GoDaddy Online Services Cayman Islands Ltd.</t>
         </is>
       </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@uniregistry.com</t>
         </is>
       </c>
       <c r="P6" s="4" t="n"/>
@@ -1052,19 +1060,15 @@
       </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>192.124.249.7</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1079,7 +1083,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>effp.org</t>
+          <t>effn.org</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1088,63 +1092,51 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-71b8-75cb-b8c4-a2ee44add7c0/</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>51 cert(s)</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>2021-07-08, 2021-07-08</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>2024-06-13, 2024-06-08</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>2031-07-08, 2031-07-08</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Redacted for Privacy</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
-        </is>
-      </c>
+          <t>2026-05-11</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
       <c r="N7" s="4" t="inlineStr">
         <is>
-          <t>NAMECHEAP INC</t>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
-          <t>abuse@namecheap.com, cdee6fecd59340bea9c50c370d25aac1.protect@withheldforprivacy.com</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
+          <t>abuse@dynadot.com</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="n"/>
       <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
@@ -1152,19 +1144,15 @@
       </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
-          <t>dns1.registrar-servers.com, dns2.registrar-servers.com</t>
+          <t>ns1.afternic.com, ns2.afternic.com, verification-ndzevshmc6qrwu5uexsxir.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>192.64.119.186</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>mail.protonmail.ch</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1179,7 +1167,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>efft.org</t>
+          <t>effx.org</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1188,16 +1176,16 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-7049-727e-bb75-d35c5baf1b63/</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>15 cert(s)</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -1207,17 +1195,17 @@
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>2018-05-17</t>
+          <t>2018-03-19</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2027-03-19</t>
         </is>
       </c>
       <c r="L8" s="4" t="n"/>
@@ -1240,19 +1228,15 @@
       </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
-          <t>ns71.domaincontrol.com, ns72.domaincontrol.com</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>52.37.117.203</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1267,7 +1251,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>effc.org</t>
+          <t>effo.org</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1276,16 +1260,16 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-7004-70cf-bfa0-5e7112302cb0/</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>8 cert(s)</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -1295,64 +1279,48 @@
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>1998-08-13</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>2025-08-15, 2025-08-10</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
       <c r="N9" s="4" t="inlineStr">
         <is>
-          <t>TUCOWS DOMAINS, INC.</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t>domainabuse@tucows.com, dnsmaster@zen.co.uk</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="n"/>
       <c r="Q9" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R9" s="4" t="inlineStr">
         <is>
-          <t>ns0.zen.co.uk, ns1.zen.co.uk</t>
+          <t>ns39.domaincontrol.com, ns40.domaincontrol.com</t>
         </is>
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>80.87.129.95</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>effc-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
+          <t>15.197.148.33</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1367,7 +1335,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>effs.org</t>
+          <t>effw.org</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1376,16 +1344,16 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e401-7158-a00e-0fe304ba0dbe/</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>6 cert(s)</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
@@ -1395,50 +1363,50 @@
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>2000-04-17</t>
+          <t>2008-03-06</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2028-03-06</t>
         </is>
       </c>
       <c r="L10" s="4" t="n"/>
       <c r="M10" s="4" t="n"/>
       <c r="N10" s="4" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O10" s="4" t="inlineStr">
         <is>
-          <t>abuse@ascio.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="P10" s="4" t="n"/>
       <c r="Q10" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R10" s="4" t="inlineStr">
         <is>
-          <t>ns1.nameservice.at, ns2.nameservice.at</t>
+          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
         </is>
       </c>
       <c r="S10" s="4" t="inlineStr">
         <is>
-          <t>83.65.2.30</t>
+          <t>15.197.148.33</t>
         </is>
       </c>
       <c r="T10" s="4" t="inlineStr">
         <is>
-          <t>mx.mymagenta.business</t>
+          <t>effw.org.mx1.fulcrumgroup.rcimx.net</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1423,12 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>efn.org</t>
+          <t>effg.org</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E11" s="4" t="n">
@@ -1468,44 +1436,44 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e3eb-75f6-9721-2fc3c4dbbfdd/</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>1993-04-05</t>
+          <t>2015-02-04</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="L11" s="4" t="n"/>
       <c r="M11" s="4" t="n"/>
       <c r="N11" s="4" t="inlineStr">
         <is>
-          <t>eNom, LLC</t>
+          <t>DreamHost, LLC</t>
         </is>
       </c>
       <c r="O11" s="4" t="inlineStr">
         <is>
-          <t>abuse@enom.com</t>
+          <t>domain-abuse@dreamhost.com</t>
         </is>
       </c>
       <c r="P11" s="4" t="n"/>
@@ -1516,17 +1484,17 @@
       </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
-          <t>ns1.peak.org, ns2.peak.org</t>
+          <t>ns1.dreamhost.com, ns2.dreamhost.com, ns3.dreamhost.com</t>
         </is>
       </c>
       <c r="S11" s="4" t="inlineStr">
         <is>
-          <t>104.168.142.100</t>
+          <t>173.236.142.191</t>
         </is>
       </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
-          <t>efn-org.mx.av-mx.com</t>
+          <t>mx1.dreamhost.com</t>
         </is>
       </c>
     </row>
@@ -1543,12 +1511,12 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>efb.org</t>
+          <t>effi.org</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E12" s="4" t="n">
@@ -1556,12 +1524,12 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e401-7158-a00e-096c7396b10d/</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
@@ -1571,45 +1539,45 @@
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>1998-09-13</t>
+          <t>2001-09-06</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2028-09-06</t>
         </is>
       </c>
       <c r="L12" s="4" t="n"/>
       <c r="M12" s="4" t="n"/>
       <c r="N12" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Gandi SAS</t>
         </is>
       </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@support.gandi.net</t>
         </is>
       </c>
       <c r="P12" s="4" t="n"/>
       <c r="Q12" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R12" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>ns-2-a.gandi.net, ns-33-b.gandi.net, ns-82-c.gandi.net</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
+          <t>185.185.169.228</t>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr"/>
@@ -1627,12 +1595,12 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>efv.org</t>
+          <t>effd.org</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E13" s="4" t="n">
@@ -1640,12 +1608,12 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e757-708f-beff-3d9db795509f/</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr">
@@ -1655,17 +1623,17 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>2003-04-23</t>
+          <t>2003-07-02</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="K13" s="4" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="L13" s="4" t="n"/>
@@ -1688,15 +1656,19 @@
       </c>
       <c r="R13" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr"/>
+          <t>192.124.249.7</t>
+        </is>
+      </c>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>alt1.aspmx.l.google.com</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1711,12 +1683,12 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>evf.org</t>
+          <t>effp.org</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E14" s="4" t="n">
@@ -1724,63 +1696,79 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e22f-72a9-ae63-f3d67c8b6b11/</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 200</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>2001-01-25</t>
+          <t>2021-07-08, 2021-07-08</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2024-06-13, 2024-06-08</t>
         </is>
       </c>
       <c r="K14" s="4" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
+          <t>2031-07-08, 2031-07-08</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>Redacted for Privacy</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
+        </is>
+      </c>
       <c r="N14" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>NAMECHEAP INC</t>
         </is>
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="n"/>
+          <t>abuse@namecheap.com, cdee6fecd59340bea9c50c370d25aac1.protect@withheldforprivacy.com</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
       <c r="Q14" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
+          <t>dns1.registrar-servers.com, dns2.registrar-servers.com</t>
         </is>
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr"/>
+          <t>192.64.119.186</t>
+        </is>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>mail.protonmail.ch</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1795,12 +1783,12 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>edf.org</t>
+          <t>efft.org</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E15" s="4" t="n">
@@ -1808,12 +1796,12 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e41e-7254-91fb-c9f53280e0ac/</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1823,50 +1811,50 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>1991-08-27</t>
+          <t>2018-05-17</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="L15" s="4" t="n"/>
       <c r="M15" s="4" t="n"/>
       <c r="N15" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="P15" s="4" t="n"/>
       <c r="Q15" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>ns3-06.azure-dns.org, ns1-06.azure-dns.com, ns2-06.azure-dns.net, ns4-06.azure-dns.info</t>
+          <t>ns71.domaincontrol.com, ns72.domaincontrol.com</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>151.101.194.216</t>
+          <t>52.37.117.203</t>
         </is>
       </c>
       <c r="T15" s="4" t="inlineStr">
         <is>
-          <t>edf-org.mail.protection.outlook.com</t>
+          <t>alt1.aspmx.l.google.com</t>
         </is>
       </c>
     </row>
@@ -1883,12 +1871,12 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>ebf.org</t>
+          <t>effc.org</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E16" s="4" t="n">
@@ -1896,7 +1884,7 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e3eb-75f6-9721-296611a66a39/</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -1911,58 +1899,62 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>1997-05-14</t>
+          <t>1998-08-13</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
-          <t>2024-06-20, 2024-06-20</t>
+          <t>2025-08-15, 2025-08-10</t>
         </is>
       </c>
       <c r="K16" s="4" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="L16" s="4" t="inlineStr">
         <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="M16" s="4" t="n"/>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
       <c r="N16" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>TUCOWS DOMAINS, INC.</t>
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, h63rh6c3942@networksolutionsprivateregistration.com</t>
+          <t>domainabuse@tucows.com, dnsmaster@zen.co.uk</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>ns2.wixdns.net, ns3.wixdns.net</t>
+          <t>ns0.zen.co.uk, ns1.zen.co.uk</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>185.230.63.107</t>
+          <t>80.87.129.95</t>
         </is>
       </c>
       <c r="T16" s="4" t="inlineStr">
         <is>
-          <t>alt1.aspmx.l.google.com</t>
+          <t>effc-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -1979,12 +1971,12 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>mff.org</t>
+          <t>effs.org</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E17" s="4" t="n">
@@ -1992,7 +1984,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e313-768b-9dca-8d47edc552d9/</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -2007,58 +1999,50 @@
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>1996-03-06</t>
+          <t>2000-04-17</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>2021-01-12, 2021-01-12</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="K17" s="4" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
-        </is>
-      </c>
-      <c r="L17" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="n"/>
       <c r="M17" s="4" t="n"/>
       <c r="N17" s="4" t="inlineStr">
         <is>
-          <t>Register.com - Network Solutions, LLC</t>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
         </is>
       </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, a92ax4fd794@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@ascio.com</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="n"/>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>ns-1503.awsdns-59.org, ns-1706.awsdns-21.co.uk, ns-261.awsdns-32.com, ns-592.awsdns-10.net</t>
+          <t>ns1.nameservice.at, ns2.nameservice.at</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>34.238.11.122</t>
+          <t>83.65.2.30</t>
         </is>
       </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
-          <t>mxa-001b2501.gslb.pphosted.com</t>
+          <t>mx.mymagenta.business</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2059,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>gff.org</t>
+          <t>efn.org</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -2088,7 +2072,7 @@
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7f0d-71cb-9415-fb1b2dbec4f7/</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -2098,34 +2082,34 @@
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 403</t>
+          <t>HTTP: 200</t>
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>2003-04-23</t>
+          <t>1993-04-05</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="K18" s="4" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="L18" s="4" t="n"/>
       <c r="M18" s="4" t="n"/>
       <c r="N18" s="4" t="inlineStr">
         <is>
-          <t>CSC Corporate Domains, Inc.</t>
+          <t>eNom, LLC</t>
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t>domainabuse@cscglobal.com</t>
+          <t>abuse@enom.com</t>
         </is>
       </c>
       <c r="P18" s="4" t="n"/>
@@ -2136,17 +2120,17 @@
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>dns1.p04.nsone.net, dns2.p04.nsone.net, dns3.p04.nsone.net, dns4.p04.nsone.net</t>
+          <t>ns1.peak.org, ns2.peak.org</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>75.2.33.211</t>
+          <t>104.168.142.100</t>
         </is>
       </c>
       <c r="T18" s="4" t="inlineStr">
         <is>
-          <t>mx1.hc2314-6.iphmx.com</t>
+          <t>efn-org.mx.av-mx.com</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2147,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>efd.org</t>
+          <t>efb.org</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2176,7 +2160,7 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7de8-7303-ab52-b42aa5c59eb8/</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -2191,52 +2175,48 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>1999-11-26</t>
+          <t>1998-09-13</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="K19" s="4" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="L19" s="4" t="n"/>
       <c r="M19" s="4" t="n"/>
       <c r="N19" s="4" t="inlineStr">
         <is>
-          <t>IONOS SE</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>abuse@ionos.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="P19" s="4" t="n"/>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>ns1.livedns.co.uk, ns2.livedns.co.uk, ns3.livedns.co.uk</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>77.68.64.46</t>
-        </is>
-      </c>
-      <c r="T19" s="4" t="inlineStr">
-        <is>
-          <t>mailserver.efd.org</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -2251,12 +2231,12 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>cff.org</t>
+          <t>efv.org</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>homoglyph</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E20" s="4" t="n">
@@ -2264,7 +2244,7 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7dcf-70c5-b569-1ee87747ed32/</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -2274,61 +2254,53 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>1996-08-13</t>
+          <t>2003-04-23</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>2025-06-20, 2025-06-15</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>2030-08-12</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="L20" s="4" t="n"/>
       <c r="M20" s="4" t="n"/>
       <c r="N20" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, hostmaster@cff.org</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="n"/>
       <c r="Q20" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>ns-1273.awsdns-31.org, ns-1692.awsdns-19.co.uk, ns-183.awsdns-22.com, ns-823.awsdns-38.net</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>151.101.1.193</t>
-        </is>
-      </c>
-      <c r="T20" s="4" t="inlineStr">
-        <is>
-          <t>esa1.hc2873-2.iphmx.com</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -2343,12 +2315,12 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>efgf.org</t>
+          <t>evf.org</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E21" s="4" t="n">
@@ -2356,12 +2328,12 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7e17-7768-8bf4-5920ed3eff5b/</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_429</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -2371,17 +2343,17 @@
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2001-01-25</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
         <is>
-          <t>2027-09-23</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="L21" s="4" t="n"/>
@@ -2404,19 +2376,15 @@
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>ns63.domaincontrol.com, ns64.domaincontrol.com</t>
+          <t>ns49.domaincontrol.com, ns50.domaincontrol.com</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>13.248.243.5</t>
-        </is>
-      </c>
-      <c r="T21" s="4" t="inlineStr">
-        <is>
-          <t>mailstore1.secureserver.net</t>
-        </is>
-      </c>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -2431,12 +2399,12 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>seff.org</t>
+          <t>edf.org</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E22" s="4" t="n">
@@ -2444,12 +2412,12 @@
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7c69-73e3-b8fe-2f7e98269e72/</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_429</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
@@ -2459,62 +2427,50 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>1999-12-23</t>
+          <t>1991-08-27</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>2024-11-29, 2024-11-24</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
+          <t>2026-08-26</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="n"/>
+      <c r="M22" s="4" t="n"/>
       <c r="N22" s="4" t="inlineStr">
         <is>
-          <t>TUCOWS DOMAINS, INC.</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>domainabuse@tucows.com, registry@beebyte.se</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
+          <t>domain.operations@web.com</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="n"/>
       <c r="Q22" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, serverTransferProhibited https://icann.org/epp#serverTransferProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>ns1.beebyte.net, ns2.beebyte.net, ns3.beebyte.net</t>
+          <t>ns3-06.azure-dns.org, ns1-06.azure-dns.com, ns2-06.azure-dns.net, ns4-06.azure-dns.info</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>185.133.207.39</t>
+          <t>151.101.194.216</t>
         </is>
       </c>
       <c r="T22" s="4" t="inlineStr">
         <is>
-          <t>mail2-in.beebyte.se</t>
+          <t>edf-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2487,12 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>edff.org</t>
+          <t>ebf.org</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E23" s="4" t="n">
@@ -2544,7 +2500,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7ec8-7669-a964-986c4e7acf9f/</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -2559,40 +2515,48 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>1997-05-14</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-06-20, 2024-06-20</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>2027-04-16</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="n"/>
+          <t>2026-05-15</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
       <c r="M23" s="4" t="n"/>
       <c r="N23" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="n"/>
+          <t>domain.operations@web.com, h63rh6c3942@networksolutionsprivateregistration.com</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="Q23" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>ns75.domaincontrol.com, ns76.domaincontrol.com</t>
+          <t>ns2.wixdns.net, ns3.wixdns.net</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
@@ -2619,12 +2583,12 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>eftf.org</t>
+          <t>aff.org</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -2632,7 +2596,7 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7df0-75c7-b77a-eea04c429cbc/</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -2642,55 +2606,63 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 200</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>2001-04-18</t>
+          <t>1996-12-03, 1996-12-03</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-17, 2024-11-17</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="n"/>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
       <c r="M24" s="4" t="n"/>
       <c r="N24" s="4" t="inlineStr">
         <is>
-          <t>COREhub, S.R.L.</t>
+          <t>Squarespace Domains II LLC</t>
         </is>
       </c>
       <c r="O24" s="4" t="inlineStr">
         <is>
-          <t>abuse@corehub.net</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="n"/>
+          <t>abuse-complaints@squarespace.com</t>
+        </is>
+      </c>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="Q24" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, client delete prohibited http://www.icann.org/epp#client delete prohibited, client transfer prohibited http://www.icann.org/epp#client transfer prohibited</t>
         </is>
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>dns-1.dfn.de, dns-2.dfn.de, dns-3.dfn.de, ns1.ptb.de</t>
+          <t>ns-cloud-b1.googledomains.com, ns-cloud-b4.googledomains.com, ns-cloud-b2.googledomains.com, ns-cloud-b3.googledomains.com</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>192.53.103.121</t>
+          <t>198.185.159.145</t>
         </is>
       </c>
       <c r="T24" s="4" t="inlineStr">
         <is>
-          <t>mx1.berlin.ptb.de</t>
+          <t>alt1.aspmx.l.google.com</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2679,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>deff.org</t>
+          <t>mff.org</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E25" s="4" t="n">
@@ -2720,7 +2692,7 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-04ff-77f8-868e-a897070df9d6/</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -2730,42 +2702,38 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>2010-12-20, 2010-12-20</t>
+          <t>1996-03-06</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>2025-02-03, 2025-02-04</t>
+          <t>2021-01-12, 2021-01-12</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>2025-12-20, 2025-12-20</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr">
         <is>
-          <t>This Domain For Sale Worldwide 3392225132</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>BuyDomains.com</t>
-        </is>
-      </c>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="n"/>
       <c r="N25" s="4" t="inlineStr">
         <is>
-          <t>AZDOMAINZ.COM, LLC</t>
+          <t>Register.com - Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
+          <t>domain.operations@web.com, a92ax4fd794@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P25" s="4" t="inlineStr">
@@ -2775,20 +2743,24 @@
       </c>
       <c r="Q25" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>ns.buydomains.com, this-domain-for-sale.com</t>
+          <t>ns-1503.awsdns-59.org, ns-1706.awsdns-21.co.uk, ns-261.awsdns-32.com, ns-592.awsdns-10.net</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>207.148.248.143</t>
-        </is>
-      </c>
-      <c r="T25" s="4" t="inlineStr"/>
+          <t>34.238.11.122</t>
+        </is>
+      </c>
+      <c r="T25" s="4" t="inlineStr">
+        <is>
+          <t>mxa-001b2501.gslb.pphosted.com</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2803,12 +2775,12 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>efrf.org</t>
+          <t>gff.org</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E26" s="4" t="n">
@@ -2816,7 +2788,7 @@
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-055b-768d-800e-5ba9486c052e/</t>
         </is>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -2826,55 +2798,55 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 403</t>
         </is>
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t>2012-08-24</t>
+          <t>2003-04-23</t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="L26" s="4" t="n"/>
       <c r="M26" s="4" t="n"/>
       <c r="N26" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>CSC Corporate Domains, Inc.</t>
         </is>
       </c>
       <c r="O26" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>domainabuse@cscglobal.com</t>
         </is>
       </c>
       <c r="P26" s="4" t="n"/>
       <c r="Q26" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>ns1.sedoparking.com, ns2.sedoparking.com</t>
+          <t>dns1.p04.nsone.net, dns2.p04.nsone.net, dns3.p04.nsone.net, dns4.p04.nsone.net</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>64.190.63.222</t>
+          <t>75.2.33.211</t>
         </is>
       </c>
       <c r="T26" s="4" t="inlineStr">
         <is>
-          <t>localhost</t>
+          <t>mx1.hc2314-6.iphmx.com</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2863,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>efdf.org</t>
+          <t>efd.org</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>bitsquatting</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
@@ -2904,7 +2876,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-0cb0-71e9-b257-17dd559356a3/</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -2919,29 +2891,29 @@
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t>2000-09-04</t>
+          <t>1999-11-26</t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="K27" s="4" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="L27" s="4" t="n"/>
       <c r="M27" s="4" t="n"/>
       <c r="N27" s="4" t="inlineStr">
         <is>
-          <t>RegistryGate GmbH</t>
+          <t>IONOS SE</t>
         </is>
       </c>
       <c r="O27" s="4" t="inlineStr">
         <is>
-          <t>abuse@registrygate.com</t>
+          <t>abuse@ionos.com</t>
         </is>
       </c>
       <c r="P27" s="4" t="n"/>
@@ -2952,17 +2924,17 @@
       </c>
       <c r="R27" s="4" t="inlineStr">
         <is>
-          <t>ns5.kasserver.com, ns6.kasserver.com</t>
+          <t>ns1.livedns.co.uk, ns2.livedns.co.uk, ns3.livedns.co.uk</t>
         </is>
       </c>
       <c r="S27" s="4" t="inlineStr">
         <is>
-          <t>85.13.146.87</t>
+          <t>77.68.64.46</t>
         </is>
       </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
-          <t>w0066a93.kasserver.com</t>
+          <t>mailserver.efd.org</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2951,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>ef.org</t>
+          <t>cff.org</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>omission</t>
+          <t>homoglyph</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -2992,7 +2964,7 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/0199e955-f420-768a-b119-8ac0c20f0c85/</t>
         </is>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -3007,52 +2979,52 @@
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>1994-08-16</t>
+          <t>1996-08-13</t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-06-20, 2025-06-15</t>
         </is>
       </c>
       <c r="K28" s="4" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2030-08-12</t>
         </is>
       </c>
       <c r="L28" s="4" t="n"/>
       <c r="M28" s="4" t="n"/>
       <c r="N28" s="4" t="inlineStr">
         <is>
-          <t>easyDNS Technologies Inc.</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O28" s="4" t="inlineStr">
         <is>
-          <t>abuse@easydns.com</t>
-        </is>
-      </c>
-      <c r="P28" s="4" t="n"/>
+          <t>domain.operations@web.com, hostmaster@cff.org</t>
+        </is>
+      </c>
+      <c r="P28" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="Q28" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R28" s="4" t="inlineStr">
         <is>
-          <t>ns3.easydns.org, ns1.easydns.com, ns2.easydns.com, ns6.easydns.net, remote2.easydns.com, remote1.easydns.com</t>
+          <t>ns-1273.awsdns-31.org, ns-1692.awsdns-19.co.uk, ns-183.awsdns-22.com, ns-823.awsdns-38.net</t>
         </is>
       </c>
       <c r="S28" s="4" t="inlineStr">
         <is>
-          <t>104.198.104.86</t>
-        </is>
-      </c>
-      <c r="T28" s="4" t="inlineStr">
-        <is>
-          <t>d161249a.ess.barracudanetworks.com</t>
-        </is>
-      </c>
+          <t>151.101.1.193</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -3067,12 +3039,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>eeff.org</t>
+          <t>efgf.org</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -3080,75 +3052,67 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-ba86-760b-9837-26852093f1ea/</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>2010-04-19, 2010-04-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
-          <t>2025-06-03, 2025-06-04</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="K29" s="4" t="inlineStr">
         <is>
-          <t>2026-04-19, 2026-04-19</t>
-        </is>
-      </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>This Domain For Sale Worldwide 3392225132</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>BuyDomains.com</t>
-        </is>
-      </c>
+          <t>2027-09-23</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="n"/>
+      <c r="M29" s="4" t="n"/>
       <c r="N29" s="4" t="inlineStr">
         <is>
-          <t>AZDOMAINZ.COM, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P29" s="4" t="n"/>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>ns.buydomains.com, this-domain-for-sale.com</t>
+          <t>ns63.domaincontrol.com, ns64.domaincontrol.com</t>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>207.148.248.143</t>
-        </is>
-      </c>
-      <c r="T29" s="4" t="inlineStr"/>
+          <t>13.248.243.5</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t>mailstore1.secureserver.net</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -3163,12 +3127,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>ecf.org</t>
+          <t>seff.org</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -3176,7 +3140,7 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0f08-3a47-74da-b815-79bd2c6a53fa/</t>
         </is>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -3191,50 +3155,62 @@
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>2001-10-24</t>
+          <t>1999-12-23</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-11-29, 2024-11-24</t>
         </is>
       </c>
       <c r="K30" s="4" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="L30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
       <c r="N30" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>TUCOWS DOMAINS, INC.</t>
         </is>
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="P30" s="4" t="n"/>
+          <t>domainabuse@tucows.com, registry@beebyte.se</t>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ok https://icann.org/epp#ok, serverTransferProhibited https://icann.org/epp#serverTransferProhibited</t>
         </is>
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t>carol.ns.cloudflare.com, dante.ns.cloudflare.com</t>
+          <t>ns1.beebyte.net, ns2.beebyte.net, ns3.beebyte.net</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
         <is>
-          <t>104.21.29.129</t>
+          <t>185.133.207.39</t>
         </is>
       </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
-          <t>ecf-org.mail.protection.outlook.com</t>
+          <t>mail2-in.beebyte.se</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3227,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>rff.org</t>
+          <t>edff.org</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -3264,12 +3240,12 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-bb49-73d9-8f98-ce29b960db8f/</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -3279,58 +3255,50 @@
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>1994-04-22</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
-          <t>2024-02-28, 2025-10-21</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
         <is>
-          <t>2029-04-23</t>
-        </is>
-      </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
+          <t>2027-04-16</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="n"/>
       <c r="M31" s="4" t="n"/>
       <c r="N31" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O31" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, xb4zk57j3q5@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P31" s="4" t="n"/>
       <c r="Q31" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t>brianna.ns.cloudflare.com, lynn.ns.cloudflare.com</t>
+          <t>ns75.domaincontrol.com, ns76.domaincontrol.com</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
-          <t>104.26.0.47</t>
+          <t>185.230.63.107</t>
         </is>
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t>rff-org.mail.protection.outlook.com</t>
+          <t>alt1.aspmx.l.google.com</t>
         </is>
       </c>
     </row>
@@ -3347,12 +3315,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>efc.org</t>
+          <t>eftf.org</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -3360,7 +3328,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-b9d9-77de-83a4-b91ba67b7175/</t>
         </is>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -3370,63 +3338,55 @@
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t>1996-02-11</t>
+          <t>2001-04-18</t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
-          <t>2023-12-22, 2023-12-14</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="K32" s="4" t="inlineStr">
         <is>
-          <t>2029-02-12</t>
-        </is>
-      </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="n"/>
       <c r="M32" s="4" t="n"/>
       <c r="N32" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>COREhub, S.R.L.</t>
         </is>
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, zp9qy68737m@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@corehub.net</t>
+        </is>
+      </c>
+      <c r="P32" s="4" t="n"/>
       <c r="Q32" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>ns7.worldnic.com, ns8.worldnic.com</t>
+          <t>dns-1.dfn.de, dns-2.dfn.de, dns-3.dfn.de, ns1.ptb.de</t>
         </is>
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t>141.193.213.20</t>
+          <t>192.53.103.121</t>
         </is>
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t>efc-org.mail.protection.outlook.com</t>
+          <t>mx1.berlin.ptb.de</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3403,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>etf.org</t>
+          <t>deff.org</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -3456,7 +3416,7 @@
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-bca6-7444-883c-6b62c6c6ded9/</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -3466,38 +3426,42 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTP: 403</t>
         </is>
       </c>
       <c r="I33" s="4" t="inlineStr">
         <is>
-          <t>1995-10-03</t>
+          <t>2010-12-20, 2010-12-20</t>
         </is>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
-          <t>2025-08-10, 2025-08-05</t>
+          <t>2025-02-03, 2025-02-04</t>
         </is>
       </c>
       <c r="K33" s="4" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2025-12-20, 2025-12-20</t>
         </is>
       </c>
       <c r="L33" s="4" t="inlineStr">
         <is>
-          <t>PERFECT PRIVACY, LLC</t>
-        </is>
-      </c>
-      <c r="M33" s="4" t="n"/>
+          <t>This Domain For Sale Worldwide 3392225132</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>BuyDomains.com</t>
+        </is>
+      </c>
       <c r="N33" s="4" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>AZDOMAINZ.COM, LLC</t>
         </is>
       </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, xg97j38t5rw@networksolutionsprivateregistration.com</t>
+          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
         </is>
       </c>
       <c r="P33" s="4" t="inlineStr">
@@ -3507,24 +3471,20 @@
       </c>
       <c r="Q33" s="4" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t>ns19.worldnic.com, ns20.worldnic.com</t>
+          <t>ns.buydomains.com, this-domain-for-sale.com</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t>209.17.116.163</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t>etf-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
+          <t>207.148.248.143</t>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3539,12 +3499,12 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>zff.org</t>
+          <t>efrf.org</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E34" s="4" t="n">
@@ -3552,7 +3512,7 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8a79-7700-b87e-dbc038635bfc/</t>
         </is>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -3567,50 +3527,50 @@
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t>1998-05-11</t>
+          <t>2012-08-24</t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="L34" s="4" t="n"/>
       <c r="M34" s="4" t="n"/>
       <c r="N34" s="4" t="inlineStr">
         <is>
-          <t>eNom, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>abuse@enom.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="P34" s="4" t="n"/>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>ns0.dnsmadeeasy.com, ns1.dnsmadeeasy.com, ns2.dnsmadeeasy.com, ns3.dnsmadeeasy.com, ns4.dnsmadeeasy.com</t>
+          <t>ns1.sedoparking.com, ns2.sedoparking.com</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>216.24.57.1</t>
+          <t>64.190.63.222</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>zff-org.mail.protection.outlook.com</t>
+          <t>localhost</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3587,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>efforg.com</t>
+          <t>efdf.org</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E35" s="4" t="n">
@@ -3640,12 +3600,12 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8849-706c-922f-17855f30ae54/</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_429</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
@@ -3655,58 +3615,50 @@
       </c>
       <c r="I35" s="4" t="inlineStr">
         <is>
-          <t>2010-07-23, 2010-07-22</t>
+          <t>2000-09-04</t>
         </is>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>2025-07-23, 2025-07-23</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>2026-07-23, 2026-07-22</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>Domain Admin</t>
-        </is>
-      </c>
+          <t>2026-09-04</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="n"/>
       <c r="M35" s="4" t="n"/>
       <c r="N35" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>RegistryGate GmbH</t>
         </is>
       </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com, domain@holtwork.com</t>
-        </is>
-      </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>abuse@registrygate.com</t>
+        </is>
+      </c>
+      <c r="P35" s="4" t="n"/>
       <c r="Q35" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>ns67.domaincontrol.com, ns68.domaincontrol.com</t>
+          <t>ns5.kasserver.com, ns6.kasserver.com</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
         <is>
-          <t>15.197.225.128</t>
+          <t>85.13.146.87</t>
         </is>
       </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
-          <t>mailstore1.secureserver.net</t>
+          <t>w0066a93.kasserver.com</t>
         </is>
       </c>
     </row>
@@ -3723,12 +3675,12 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>iff.org</t>
+          <t>ef.org</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>vowel-swap</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="E36" s="4" t="n">
@@ -3736,7 +3688,7 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8b07-752c-820d-d21eee477605/</t>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -3746,55 +3698,55 @@
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTPS: 403</t>
         </is>
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t>2001-11-14</t>
+          <t>1994-08-16</t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="K36" s="4" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="L36" s="4" t="n"/>
       <c r="M36" s="4" t="n"/>
       <c r="N36" s="4" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>easyDNS Technologies Inc.</t>
         </is>
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@easydns.com</t>
         </is>
       </c>
       <c r="P36" s="4" t="n"/>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t>ns-1402.awsdns-47.org, ns-1939.awsdns-50.co.uk, ns-236.awsdns-29.com, ns-590.awsdns-09.net</t>
+          <t>ns3.easydns.org, ns1.easydns.com, ns2.easydns.com, ns6.easydns.net, remote2.easydns.com, remote1.easydns.com</t>
         </is>
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>199.16.172.59</t>
+          <t>104.198.104.86</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
-          <t>iff-org.mail.protection.outlook.com</t>
+          <t>d161249a.ess.barracudanetworks.com</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3763,12 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>off.org</t>
+          <t>eeff.org</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>vowel-swap</t>
+          <t>repetition</t>
         </is>
       </c>
       <c r="E37" s="4" t="n">
@@ -3824,7 +3776,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8a43-7335-bd8c-4d9c120e53df/</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -3834,643 +3786,713 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
+          <t>HTTP: 403</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>2010-04-19, 2010-04-19</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-03, 2025-06-04</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>2026-04-19, 2026-04-19</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>This Domain For Sale Worldwide 3392225132</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>BuyDomains.com</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>AZDOMAINZ.COM, LLC</t>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t>abuse@azdomainz.com, brokerage@buydomains.com</t>
+        </is>
+      </c>
+      <c r="P37" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok, ok  http://www.icann.org/epp#ok</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
+          <t>ns.buydomains.com, this-domain-for-sale.com</t>
+        </is>
+      </c>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t>207.148.248.143</t>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>ecf.org</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>replacement</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8b0e-7355-9530-542b8cb0bd30/</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
           <t>HTTPS: 200</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
-        <is>
-          <t>1997-08-01</t>
-        </is>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="K37" s="4" t="inlineStr">
-        <is>
-          <t>2031-07-31</t>
-        </is>
-      </c>
-      <c r="L37" s="4" t="n"/>
-      <c r="M37" s="4" t="n"/>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>2001-10-24</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>GoDaddy.com, LLC</t>
         </is>
       </c>
-      <c r="O37" s="4" t="inlineStr">
+      <c r="O38" s="4" t="inlineStr">
         <is>
           <t>abuse@godaddy.com</t>
         </is>
       </c>
-      <c r="P37" s="4" t="n"/>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="inlineStr">
         <is>
           <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t>dante.ns.cloudflare.com, princess.ns.cloudflare.com</t>
-        </is>
-      </c>
-      <c r="S37" s="4" t="inlineStr">
-        <is>
-          <t>3.34.29.177</t>
-        </is>
-      </c>
-      <c r="T37" s="4" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>effu.org</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>25</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t>carol.ns.cloudflare.com, dante.ns.cloudflare.com</t>
+        </is>
+      </c>
+      <c r="S38" s="4" t="inlineStr">
+        <is>
+          <t>104.21.29.129</t>
+        </is>
+      </c>
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t>ecf-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>rff.org</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>replacement</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8bcc-727c-ad7f-605ab4b43728/</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 200</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>1994-04-22</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-28, 2025-10-21</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>2029-04-23</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>domain.operations@web.com, xb4zk57j3q5@networksolutionsprivateregistration.com</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr">
+        <is>
+          <t>brianna.ns.cloudflare.com, lynn.ns.cloudflare.com</t>
+        </is>
+      </c>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t>104.26.0.47</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>rff-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>efc.org</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>replacement</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-53c0-715e-b25c-e6b3d473bb6b/</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>timeout</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>HTTP: 404</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2019-01-17, 2019-01-17</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2024-01-13, 2024-01-08</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2026-01-17, 2026-01-17</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Redacted for Privacy</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>NAMECHEAP INC</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>abuse@namecheap.com, 7f079307da8f44a78cb2147aeb3bb0a3.protect@withheldforprivacy.com</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>HTTPS: 403</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>1996-02-11</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-22, 2023-12-14</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>2029-02-12</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="O40" s="4" t="inlineStr">
+        <is>
+          <t>domain.operations@web.com, zp9qy68737m@networksolutionsprivateregistration.com</t>
+        </is>
+      </c>
+      <c r="P40" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q40" s="4" t="inlineStr">
         <is>
           <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>ns1.messagingengine.com, ns2.messagingengine.com</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>103.168.172.37</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>in1-smtp.messagingengine.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>effv.org</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>25</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>http_404</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="R40" s="4" t="inlineStr">
+        <is>
+          <t>ns7.worldnic.com, ns8.worldnic.com</t>
+        </is>
+      </c>
+      <c r="S40" s="4" t="inlineStr">
+        <is>
+          <t>141.193.213.20</t>
+        </is>
+      </c>
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t>efc-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>etf.org</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>replacement</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-5649-716b-8698-c463be478254/</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>HTTP: 200</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>1995-10-03</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-10, 2025-08-05</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>2026-10-02</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>PERFECT PRIVACY, LLC</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t>Network Solutions, LLC</t>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t>domain.operations@web.com, xg97j38t5rw@networksolutionsprivateregistration.com</t>
+        </is>
+      </c>
+      <c r="P41" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q41" s="4" t="inlineStr">
+        <is>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+        </is>
+      </c>
+      <c r="R41" s="4" t="inlineStr">
+        <is>
+          <t>ns19.worldnic.com, ns20.worldnic.com</t>
+        </is>
+      </c>
+      <c r="S41" s="4" t="inlineStr">
+        <is>
+          <t>209.17.116.163</t>
+        </is>
+      </c>
+      <c r="T41" s="4" t="inlineStr">
+        <is>
+          <t>etf-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>zff.org</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>replacement</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-5328-767c-954b-2d2892991ffe/</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>HTTPS: 200</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2025-07-11</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2025-07-16</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2026-07-11</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Cloudflare, Inc.</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>registrar-abuse@cloudflare.com</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>desi.ns.cloudflare.com, merlin.ns.cloudflare.com</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>104.21.81.33</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>mx01.mail.icloud.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>effa.org</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>25</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>http_404</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>1998-05-11</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t>eNom, LLC</t>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t>abuse@enom.com</t>
+        </is>
+      </c>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>ok https://icann.org/epp#ok</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>ns0.dnsmadeeasy.com, ns1.dnsmadeeasy.com, ns2.dnsmadeeasy.com, ns3.dnsmadeeasy.com, ns4.dnsmadeeasy.com</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t>216.24.57.1</t>
+        </is>
+      </c>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t>zff-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>efforg.com</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-5675-7457-baaa-c8c283b60a07/</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>HTTPS: 200</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1997-12-31</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Network Solutions, LLC</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>domain.operations@web.com</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>effe.org</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>25</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>2010-07-23, 2010-07-22</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-23, 2025-07-23</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>2026-07-23, 2026-07-22</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>Domain Admin</t>
+        </is>
+      </c>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t>abuse@godaddy.com, domain@holtwork.com</t>
+        </is>
+      </c>
+      <c r="P43" s="4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="Q43" s="4" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
+      <c r="R43" s="4" t="inlineStr">
+        <is>
+          <t>ns67.domaincontrol.com, ns68.domaincontrol.com</t>
+        </is>
+      </c>
+      <c r="S43" s="4" t="inlineStr">
+        <is>
+          <t>15.197.225.128</t>
+        </is>
+      </c>
+      <c r="T43" s="4" t="inlineStr">
+        <is>
+          <t>mailstore1.secureserver.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>eff.org</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>iff.org</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>vowel-swap</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-555d-73bf-adc2-84e521945f1a/</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>http_429</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>HTTPS: 200</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2003-08-02</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2025-09-16</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2026-08-02</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>GoDaddy Online Services Cayman Islands Ltd.</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>abuse@uniregistry.com</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>2001-11-14</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>2026-11-14</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="inlineStr">
+        <is>
+          <t>GoDaddy.com, LLC</t>
+        </is>
+      </c>
+      <c r="O44" s="4" t="inlineStr">
+        <is>
+          <t>abuse@godaddy.com</t>
+        </is>
+      </c>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="inlineStr">
         <is>
           <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>efff.org</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>25</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>HTTPS: 200</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2017-01-23</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>ns3.afternic.com, ns4.afternic.com</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>effn.org</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>25</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>HTTPS: 200</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2025-09-16</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2026-05-11</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Dynadot Inc</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>abuse@dynadot.com</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>ns1.afternic.com, ns2.afternic.com, verification-ndzevshmc6qrwu5uexsxir.ns101.verify.hn</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>effx.org</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>25</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>HTTPS: 200</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2018-03-19</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2027-03-19</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>GoDaddy.com, LLC</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>abuse@godaddy.com</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="R44" s="4" t="inlineStr">
+        <is>
+          <t>ns-1402.awsdns-47.org, ns-1939.awsdns-50.co.uk, ns-236.awsdns-29.com, ns-590.awsdns-09.net</t>
+        </is>
+      </c>
+      <c r="S44" s="4" t="inlineStr">
+        <is>
+          <t>199.16.172.59</t>
+        </is>
+      </c>
+      <c r="T44" s="4" t="inlineStr">
+        <is>
+          <t>iff-org.mail.protection.outlook.com</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4485,7 +4507,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>effo.org</t>
+          <t>efff.org</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4498,12 +4520,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-74f9-732f-8c14-3d675ca64ff9/</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_502</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4513,17 +4535,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2017-01-23</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4543,12 +4565,12 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>ns39.domaincontrol.com, ns40.domaincontrol.com</t>
+          <t>ns3.afternic.com, ns4.afternic.com</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>15.197.148.33</t>
+          <t>13.248.169.48</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -4566,7 +4588,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>effw.org</t>
+          <t>effb.org</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4579,62 +4601,77 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e912-74cc-a534-2e3227278d77/</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_429</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 403</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2008-03-06</t>
+          <t>2000-07-18</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-09-01, 2025-09-07</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2028-03-06</t>
+          <t>2026-07-18</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>REDACTED FOR PRIVACY</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Europäischer Fachverband  für Blendschutz am Bildschirmarbeitsplatz e.V.</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>InterNetX GmbH</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>domain-abuse@internetx.com</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>DE</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientTransferProhibited https://www.icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>ns53.domaincontrol.com, ns54.domaincontrol.com</t>
+          <t>ns0.cluster-team.net, ns1.cluster-team.net, ns2.cluster-team.net, ns3.cluster-team.net</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>15.197.148.33</t>
+          <t>185.157.21.91</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>effw.org.mx1.fulcrumgroup.rcimx.net</t>
+          <t>mail.cluster-team.com</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4688,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>effb.org</t>
+          <t>eff4.org</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4664,7 +4701,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-e289-7346-a3b1-39c43c723c04/</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4674,67 +4711,52 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>HTTP: 403</t>
+          <t>HTTP: 200</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2000-07-18</t>
+          <t>2007-12-10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2025-09-01, 2025-09-07</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>REDACTED FOR PRIVACY</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Europäischer Fachverband  für Blendschutz am Bildschirmarbeitsplatz e.V.</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>InterNetX GmbH</t>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>domain-abuse@internetx.com</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>DE</t>
+          <t>abuse@ascio.com</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientTransferProhibited https://www.icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ns0.cluster-team.net, ns1.cluster-team.net, ns2.cluster-team.net, ns3.cluster-team.net</t>
+          <t>ns.hostpoint.ch, ns2.hostpoint.ch, ns3.hostpoint.ch</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>185.157.21.91</t>
+          <t>217.26.48.101</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>mail.cluster-team.com</t>
+          <t>mx1.mail.hostpoint.ch</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4773,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eff4.org</t>
+          <t>effv.org</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4764,7 +4786,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ede-715d-74bd-ae07-e05b821fa523/</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4774,52 +4796,48 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2007-12-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+          <t>Cloudflare, Inc.</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>abuse@ascio.com</t>
+          <t>registrar-abuse@cloudflare.com</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>ns.hostpoint.ch, ns2.hostpoint.ch, ns3.hostpoint.ch</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>217.26.48.101</t>
-        </is>
-      </c>
+          <t>desi.ns.cloudflare.com, merlin.ns.cloudflare.com</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>mx1.mail.hostpoint.ch</t>
+          <t>mx01.mail.icloud.com</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4867,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7dcf-70c5-b569-1a6f16ca4707/</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4934,7 +4952,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7d30-7781-945b-4d2fcf0d128b/</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5002,7 +5020,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>aff.org</t>
+          <t>dff.org</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5015,7 +5033,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-07a6-748c-a314-42eb1abebd19/</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5025,37 +5043,37 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>HTTP: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1996-12-03, 1996-12-03</t>
+          <t>2001-01-26</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2025-07-17, 2024-11-17</t>
+          <t>2025-02-28, 2024-01-28</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2034-01-26</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>REDACTED FOR PRIVACY</t>
+          <t>PERFECT PRIVACY, LLC</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Squarespace Domains II LLC</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>abuse-complaints@squarespace.com</t>
+          <t>domain.operations@web.com, pe74p6yn9ys@networksolutionsprivateregistration.com</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5065,24 +5083,20 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, client delete prohibited http://www.icann.org/epp#client delete prohibited, client transfer prohibited http://www.icann.org/epp#client transfer prohibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>ns-cloud-b1.googledomains.com, ns-cloud-b4.googledomains.com, ns-cloud-b2.googledomains.com, ns-cloud-b3.googledomains.com</t>
+          <t>dns1.zoneedit.com, dns2.zoneedit.com, dns3.zoneedit.com, ns7.worldnic.com, ns8.worldnic.com</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>198.185.159.145</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>alt1.aspmx.l.google.com</t>
-        </is>
-      </c>
+          <t>199.59.243.228</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5110,7 +5124,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0edf-7e68-743f-8af4-5fc44d66fa39/</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5178,7 +5192,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>dff.org</t>
+          <t>efg.org</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5191,7 +5205,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-087b-76fe-add5-09949df058c2/</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5206,37 +5220,27 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2001-01-26</t>
+          <t>2003-04-25</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2025-02-28, 2024-01-28</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2034-01-26</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>PERFECT PRIVACY, LLC</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, pe74p6yn9ys@networksolutionsprivateregistration.com</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>US</t>
+          <t>abuse@dynadot.com</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5246,12 +5250,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>dns1.zoneedit.com, dns2.zoneedit.com, dns3.zoneedit.com, ns7.worldnic.com, ns8.worldnic.com</t>
+          <t>ns1.dyna-ns.net, ns2.dyna-ns.net</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>208.91.197.27</t>
+          <t>69.163.178.20</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -5269,12 +5273,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>efg.org</t>
+          <t>e-ff.org</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>bitsquatting</t>
+          <t>hyphenation</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -5282,7 +5286,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-0872-7693-82b1-2691d64303b2/</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5292,32 +5296,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTPS: 403</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2003-04-25</t>
+          <t>2021-01-07</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Dynadot Inc</t>
+          <t>Domain.com - Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>abuse@dynadot.com</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5327,15 +5331,19 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>ns1.dyna-ns.net, ns2.dyna-ns.net</t>
+          <t>ns1.domain.com, ns2.domain.com</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>69.163.178.20</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
+          <t>66.96.162.149</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>mx.e-ff.org</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5350,12 +5358,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>e-ff.org</t>
+          <t>ecff.org</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>hyphenation</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -5363,7 +5371,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-050e-768f-a9e6-7e90989160cf/</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5373,54 +5381,50 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>HTTPS: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Domain.com - Network Solutions, LLC</t>
+          <t>DropCatch.com 980 LLC</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>domain.operations@web.com</t>
+          <t>abuse@NameBright.com</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>ns1.domain.com, ns2.domain.com</t>
+          <t>ns1.afternic.com, ns2.afternic.com</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>66.96.162.149</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>mx.e-ff.org</t>
-        </is>
-      </c>
+          <t>13.248.169.48</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5435,7 +5439,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ecff.org</t>
+          <t>efcf.org</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5446,11 +5450,7 @@
       <c r="E56" t="n">
         <v>25</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>http_429</t>
@@ -5463,37 +5463,37 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2018-02-05</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2027-02-05</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DropCatch.com 980 LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>abuse@NameBright.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>efcf.org</t>
+          <t>esff.org</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-078e-72aa-9eae-f88de8b6b91c/</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5544,17 +5544,17 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2018-02-05</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2027-02-05</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
+          <t>ns3.afternic.com, ns4.afternic.com, verification-dbgjncnnzmfgmpuki3e6hz.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>esff.org</t>
+          <t>reff.org</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-c719-76ca-9f5f-edcb09e26d42/</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5625,27 +5625,27 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2017-04-12</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-03-29</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Wild West Domains, LLC</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@wildwestdomains.com</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ns3.afternic.com, ns4.afternic.com, verification-dbgjncnnzmfgmpuki3e6hz.ns101.verify.hn</t>
+          <t>ns1.afternic.com, ns2.afternic.com, verification-yqwlayzppiicikkzjkdghq.ns101.verify.hn</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>reff.org</t>
+          <t>weff.org</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-c749-7344-8f60-44d8db00bbdf/</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>http_429</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5706,27 +5706,27 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2017-04-12</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2024-11-23</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Wild West Domains, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>abuse@wildwestdomains.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>ns1.afternic.com, ns2.afternic.com, verification-yqwlayzppiicikkzjkdghq.ns101.verify.hn</t>
+          <t>ns5.afternic.com, ns6.afternic.com</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>weff.org</t>
+          <t>egff.org</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-c59c-7212-b9bb-e07ce2b0a339/</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5782,50 +5782,54 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTP: 200</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@ascio.com</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>ok https://icann.org/epp#ok</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>ns5.afternic.com, ns6.afternic.com</t>
+          <t>ns01.one.com, ns02.one.com</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13.248.169.48</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
+          <t>46.30.211.38</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>mx1.pub.mailpod11-cph3.one.com</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5840,7 +5844,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>egff.org</t>
+          <t>zeff.org</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5853,7 +5857,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-c7d8-7484-8bfe-65f83ffbb4bc/</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5863,52 +5867,52 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>HTTP: 200</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2003-01-08</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Ascio Technologies, Inc. Danmark - Filial af Ascio technologies, Inc. USA</t>
+          <t>DNC Holdings, Inc.</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>abuse@ascio.com</t>
+          <t>abuse@directnic.com</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>ok https://icann.org/epp#ok</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>ns01.one.com, ns02.one.com</t>
+          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>46.30.211.38</t>
+          <t>58.96.84.113</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>mx1.pub.mailpod11-cph3.one.com</t>
+          <t>mail.zeff.org</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5929,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>zeff.org</t>
+          <t>ff.org</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5938,7 +5942,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8bc7-76fe-b799-9740f362b525/</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5948,52 +5952,52 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>HTTPS: 200</t>
+          <t>HTTPS: 403</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2003-01-08</t>
+          <t>1996-05-18</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2027-05-19</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DNC Holdings, Inc.</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>abuse@directnic.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
+          <t>elsa.ns.cloudflare.com, simon.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>58.96.84.113</t>
+          <t>104.26.14.69</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>mail.zeff.org</t>
+          <t>ff-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -6010,12 +6014,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ff.org</t>
+          <t>efr.org</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>omission</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -6023,7 +6027,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-8b07-752c-820d-cc090aeea7d8/</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6038,47 +6042,52 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1996-05-18</t>
+          <t>1996-07-09</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-07-06, 2025-07-01</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2027-05-19</t>
+          <t>2034-07-08</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>domain.operations@web.com, sbaily@EFR.ORG, itsupport@efr.org</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>US</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>elsa.ns.cloudflare.com, simon.ns.cloudflare.com</t>
+          <t>kate.ns.cloudflare.com, mark.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>104.26.14.69</t>
+          <t>104.26.12.189</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>ff-org.mail.protection.outlook.com</t>
+          <t>mail.efr.org</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6104,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>efr.org</t>
+          <t>sff.org</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6108,7 +6117,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-58f8-71dd-9af3-116c6355624d/</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6123,17 +6132,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1996-07-09</t>
+          <t>1995-05-28</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2025-07-06, 2025-07-01</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2034-07-08</t>
+          <t>2027-05-27</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6143,12 +6152,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>domain.operations@web.com, sbaily@EFR.ORG, itsupport@efr.org</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>US</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -6158,17 +6162,17 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>kate.ns.cloudflare.com, mark.ns.cloudflare.com</t>
+          <t>ns55.worldnic.com, ns56.worldnic.com</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>104.26.12.189</t>
+          <t>141.193.213.21</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>mail.efr.org</t>
+          <t>sff-org.mail.protection.outlook.com</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6189,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sff.org</t>
+          <t>4ff.org</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6198,7 +6202,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-531c-731c-8d0f-e06dee9801c1/</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -6208,54 +6212,50 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>HTTPS: 403</t>
+          <t>HTTPS: 200</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1995-05-28</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2027-05-27</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>Name.com, Inc.</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>domain.operations@web.com</t>
+          <t>abuse@name.com</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, autoRenewPeriod https://icann.org/epp#autoRenewPeriod</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>ns55.worldnic.com, ns56.worldnic.com</t>
+          <t>ns1.bodis.com, ns2.bodis.com</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>141.193.213.21</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>sff-org.mail.protection.outlook.com</t>
-        </is>
-      </c>
+          <t>199.59.243.228</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4ff.org</t>
+          <t>eft.org</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-574c-72d3-8f84-e42617a2c802/</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6298,42 +6298,42 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>1998-03-14</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Name.com, Inc.</t>
+          <t>Dynadot Inc</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>abuse@name.com</t>
+          <t>abuse@dynadot.com</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited, autoRenewPeriod https://icann.org/epp#autoRenewPeriod</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>ns1.bodis.com, ns2.bodis.com</t>
+          <t>launch1.spaceship.net, launch2.spaceship.net</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>199.59.243.228</t>
+          <t>44.232.173.249</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -6351,55 +6351,51 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>eft.org</t>
+          <t>effl.org</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>Scan Failed: DNS Error - Could not resolve domain</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>timeout</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>HTTPS: 200</t>
-        </is>
-      </c>
+          <t>http_429</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1998-03-14</t>
+          <t>1999-07-21</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2027-07-21</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Dynadot Inc</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>abuse@dynadot.com</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -6409,14 +6405,10 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>launch1.spaceship.net, launch2.spaceship.net</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>44.232.173.249</t>
-        </is>
-      </c>
+          <t>ns1.arabellek.com, ns2.arabellek.com</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -6432,18 +6424,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>effl.org</t>
+          <t>ewff.org</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>insertion</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>10</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee0-bc88-7190-a2de-46a70a29419d/</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>http_429</t>
@@ -6452,45 +6448,49 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1999-07-21</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2027-07-21</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>domain.operations@web.com</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>ns1.arabellek.com, ns2.arabellek.com</t>
+          <t>ns47.domaincontrol.com, ns48.domaincontrol.com</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>!ServFail</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr"/>
+          <t>173.198.158.80</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>mailstore1.secureserver.net</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ewff.org</t>
+          <t>etff.org</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-904a-762e-a3f6-1b568ece4bff/</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6529,47 +6529,62 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2016-12-10, 2016-12-10</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-11-15, 2024-11-10</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2025-12-10, 2025-12-10</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Redacted for Privacy</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Privacy service provided by Withheld for Privacy ehf</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>NAMECHEAP INC</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>abuse@namecheap.com, 7e19de8a791047929391120a1b81eb08.protect@withheldforprivacy.com, doms@yashar.io</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>IS</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ns47.domaincontrol.com, ns48.domaincontrol.com</t>
+          <t>ns1.arandomserver.com, ns2.arandomserver.com</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>173.198.158.80</t>
+          <t>85.239.53.148</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>mailstore1.secureserver.net</t>
+          <t>etff.org</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6601,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>etff.org</t>
+          <t>wff.org</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>insertion</t>
+          <t>replacement</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -6599,7 +6614,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee1-909b-76fa-8ed5-1ae1fcb55995/</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6610,64 +6625,45 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2016-12-10, 2016-12-10</t>
+          <t>1997-11-04</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2024-11-15, 2024-11-10</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2025-12-10, 2025-12-10</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Redacted for Privacy</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Privacy service provided by Withheld for Privacy ehf</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NAMECHEAP INC</t>
+          <t>GoDaddy.com, LLC</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>abuse@namecheap.com, 7e19de8a791047929391120a1b81eb08.protect@withheldforprivacy.com, doms@yashar.io</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>IS</t>
+          <t>abuse@godaddy.com</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>ns1.arandomserver.com, ns2.arandomserver.com</t>
+          <t>deborah.ns.cloudflare.com, john.ns.cloudflare.com</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>85.239.53.148</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>etff.org</t>
-        </is>
-      </c>
+          <t>104.21.55.229</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6682,7 +6678,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>wff.org</t>
+          <t>erf.org</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6695,7 +6691,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-56ec-73f1-9f3d-c6e197f8fae1/</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6706,47 +6702,47 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1997-11-04</t>
+          <t>1997-01-17</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2027-01-18</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>GoDaddy.com, LLC</t>
+          <t>Network Solutions, LLC</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>abuse@godaddy.com</t>
+          <t>domain.operations@web.com</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientRenewProhibited https://icann.org/epp#clientRenewProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>deborah.ns.cloudflare.com, john.ns.cloudflare.com</t>
+          <t>ns10.worldnic.com, ns9.worldnic.com</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>104.21.55.229</t>
+          <t>205.186.179.16</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>wff-org.mail.protection.outlook.com</t>
+          <t>mx1.emailsrvr.com</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6759,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>erf.org</t>
+          <t>fef.org</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>replacement</t>
+          <t>transposition</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -6776,137 +6772,56 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>No Scan Available</t>
+          <t>✓ Clean (0) - https://urlscan.io/result/019a0ee2-56ec-73f1-9f3d-cbf77186ccda/</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>timeout</t>
+          <t>http_429</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1997-01-17</t>
+          <t>1996-03-11</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2021-11-20</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2027-01-18</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Network Solutions, LLC</t>
+          <t>DNC Holdings, Inc.</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>domain.operations@web.com</t>
+          <t>abuse@directnic.com</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>clientTransferProhibited https://icann.org/epp#clientTransferProhibited</t>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>ns10.worldnic.com, ns9.worldnic.com</t>
+          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>205.186.179.16</t>
+          <t>198.17.44.149</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
-        <is>
-          <t>mx1.emailsrvr.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>eff.org</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>fef.org</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>transposition</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>10</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>No Scan Available</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>http_429</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1996-03-11</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2026-03-12</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>DNC Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>abuse@directnic.com</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited, clientTransferProhibited https://icann.org/epp#clientTransferProhibited, clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>ns0.directnic.com, ns1.directnic.com, ns2.directnic.com, ns3.directnic.com</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>198.17.44.149</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
         <is>
           <t>fef-org.mail.protection.outlook.com</t>
         </is>
@@ -6950,7 +6865,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-22 23:31:18</t>
+          <t>2025-10-22 23:47:34</t>
         </is>
       </c>
     </row>
@@ -6988,7 +6903,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -7073,17 +6988,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vowel-swap</t>
+          <t>homoglyph</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>homoglyph</t>
+          <t>repetition</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7093,7 +7008,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>various</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7103,7 +7018,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>vowel-swap</t>
         </is>
       </c>
       <c r="B21" t="n">
